--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1875" yWindow="870" windowWidth="24915" windowHeight="13245" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6645" yWindow="4275" windowWidth="28260" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>0.544</t>
+          <t>0.533</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.016</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.081</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.928</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.044</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.185</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.775</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="9">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.081</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.916</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="11">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.601</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="12">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.509</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="13">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.921</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="14">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.528</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="15">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.29</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="16">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.521</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="17">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.732</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="18">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.35</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="19">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.361</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.128</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.639</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="22">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.499</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="23">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.745</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="24">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.675</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="25">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.718</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="26">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.216</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="27">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.652</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="28">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.607</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="30">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.157</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="31">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.236</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="32">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.3</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="33">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.116</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.679</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="35">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0.988</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.227</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="37">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.956</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="39">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.873</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="40">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.523</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="41">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.917</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.657</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.03</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.921</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="45">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.879</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="46">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.29</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="47">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.262</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="48">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.39</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="49">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.722</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="50">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.497</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="51">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.524</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="52">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.614</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.832</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="54">
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>0.341</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="55">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>0.929</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="56">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0.341</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>0.484</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="58">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>0.863</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="59">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>0.821</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="60">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>0.158</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="61">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>0.641</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="62">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>0.529</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="63">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>0.467</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="64">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>0.269</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="65">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>0.757</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="66">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>0.823</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="67">
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>0.835</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="68">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>0.191</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="69">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>0.163</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="70">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>0.198</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="71">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="72">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>0.758</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="73">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>0.844</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>0.903</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="75">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.49</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="76">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.145</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="77">
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="78">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>0.311</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="79">
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>0.042</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="80">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>0.909</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="81">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>0.722</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="82">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>0.597</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="83">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>0.478</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="84">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>0.657</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="85">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>0.921</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="86">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>0.243</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="87">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>0.775</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="88">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>0.332</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>0.922</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="90">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>0.215</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="91">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>0.249</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="92">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>0.553</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="93">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>0.275</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="94">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>0.698</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="95">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>0.023</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="96">
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>0.253</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="97">
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>0.415</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="98">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>0.577</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="99">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>0.448</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="100">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>0.73</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="101">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>0.117</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="102">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>0.781</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemca\Desktop\MLR_CarStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C2358-9BB3-4CC3-9B6B-50EDA362FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382CD03-A35F-419E-B5AB-49E756F4E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="2160" windowWidth="24915" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,12 +94,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,12 +127,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,2212 +465,3960 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.52950863000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.63061118999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>706.71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.52171244999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>703.59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>658.67</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2545.33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>78.86</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>60.94</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.52851075999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>700.49</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>656.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2566.46</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>80.23</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>61.25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.52464354999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>699.07</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>662.36</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2563.52</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>80.930000000000007</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>60.37</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.51519594000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>693.82</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>660.14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2608.7199999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>84.25</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>60.71</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.49589345000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>727.69</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>652.62</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2463.73</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>71.56</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>61.91</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.56165381999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>702.59</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>742</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2402.44</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>79.28</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>50.89</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.65016945999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>712.69</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>725.33</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2382.9299999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>75.61</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>52.54</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.60638174</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>697.32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>658.03</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2584.08</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>81.88</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>61.04</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.51403147999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>694.99</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>727.86</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2475.52</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>83.36</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>52.28</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.57236547000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>708.72</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>742.85</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2371.4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>76.92</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>50.81</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.66376679000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>702</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>677.58</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2516.4899999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>79.540000000000006</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>58.18</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.51864522999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>705.21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>707.21</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2446.4299999999998</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>78.209999999999994</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>54.5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.55984856000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>696.21</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>646.69000000000005</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2616.4299999999998</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>82.55</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>62.91</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.52506003999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>705.52</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>748.31</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2377.6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>78.09</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>50.3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.69049506000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>712.88</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>701.49</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>2422.56</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>75.55</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>55.16</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.56140915999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>706.55</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>732.54</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>2397.77</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>77.7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>51.81</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.62085374999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>731.84</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>663.02</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2429.4299999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>70.61</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>60.27</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.55169424</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>726.56</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>749.07</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2295.44</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>71.83</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>50.23</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.72304893000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>697.23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>708.8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>2489.9</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>81.93</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>54.32</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.54488961999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>698.38</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>743.59</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>2424.86</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>81.290000000000006</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>50.74</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.64193677000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>722.41</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>654.33000000000004</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2477.38</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>72.86</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>61.63</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.55435942999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>706.04</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>653.29</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2544.36</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>77.89</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>61.8</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.53440182999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>706.76</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>686.73</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>2475.35</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>77.62</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>56.97</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.53154442000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>703.35</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>637.73</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>2592.2600000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>78.959999999999994</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>64.53</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.56424830000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>715.39</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>737.94</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2351.92</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>74.790000000000006</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>51.28</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>0.65169942999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>696.98</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>664.28</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>2573.8200000000002</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>82.08</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>60.08</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>0.50742390999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>713.04</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>635.89</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2552.7199999999998</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>75.5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>64.88</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.58229849</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>703.06</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>708.35</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>2455.36</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>79.08</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>54.37</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.55898139000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>693.28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>641.84</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2653.6</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>84.71</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>63.77</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>0.51934248999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>693.99</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>719.21</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>2498.9499999999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>84.11</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>53.18</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>0.54344466000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>704.67</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>683.19</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>2491.96</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>78.42</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>57.43</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>0.52480357</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>728.25</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>661.18</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>2444.1999999999998</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>71.430000000000007</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>60.55</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>0.55301999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>720.65</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>642.39</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>2509.42</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>73.319999999999993</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>63.67</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>0.57677286000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>704.27</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>655.39</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>2548.62</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>78.58</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>61.46</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.53145823000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>708.09</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>638.37</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>2567.87</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>77.14</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>64.41</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>0.56686449000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>708.49</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>638.04999999999995</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>2566.83</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>77</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>64.47</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>0.56845857</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>693.6</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>728.85</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>2486.96</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>84.43</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>52.18</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>0.56843790999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>727.52</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>697.78</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>2377.33</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>55.6</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>0.57148620000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>695.44</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>691.88</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>2533.36</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>83.05</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>56.32</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>0.51140982000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>704.88</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>649.32000000000005</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>2558.5100000000002</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>78.34</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>62.46</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>0.53970203000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>696.66</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>739.7</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>2443.09</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>82.27</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>51.11</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>0.62052998000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>729.71</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>659.69</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>2442.67</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>71.09</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>60.78</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>0.55630075000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>699.13</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>660.79</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>2566.34</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>60.61</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>0.51681591000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>709.01</v>
+      </c>
+      <c r="C48" s="1">
+        <v>665.55</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2505.65</v>
+      </c>
+      <c r="E48" s="1">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="F48" s="1">
+        <v>59.89</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.52764898999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>731.66</v>
+      </c>
+      <c r="C49" s="1">
+        <v>662.36</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2431.3000000000002</v>
+      </c>
+      <c r="E49" s="1">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="F49" s="1">
+        <v>60.37</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.55255860999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>718.44</v>
+      </c>
+      <c r="C50" s="1">
+        <v>645.95000000000005</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2509.35</v>
+      </c>
+      <c r="E50" s="1">
+        <v>73.92</v>
+      </c>
+      <c r="F50" s="1">
+        <v>63.04</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.56364921000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>724.39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>711.75</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2363.2199999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>72.36</v>
+      </c>
+      <c r="F51" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.59478049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>693.93</v>
+      </c>
+      <c r="C52" s="1">
+        <v>677.73</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2573.0500000000002</v>
+      </c>
+      <c r="E52" s="1">
+        <v>84.16</v>
+      </c>
+      <c r="F52" s="1">
+        <v>58.16</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.49152465000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B48">
+      <c r="B53" s="1">
         <v>703.76</v>
       </c>
-      <c r="C48">
+      <c r="C53" s="1">
         <v>647.16</v>
       </c>
-      <c r="D48">
+      <c r="D53" s="1">
         <v>2568.87</v>
       </c>
-      <c r="E48">
+      <c r="E53" s="1">
         <v>78.790000000000006</v>
       </c>
-      <c r="F48">
+      <c r="F53" s="1">
         <v>62.83</v>
       </c>
-      <c r="G48">
+      <c r="G53" s="1">
         <v>0.54281999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="B54" s="1">
         <v>700.24</v>
       </c>
-      <c r="C49">
+      <c r="C54" s="1">
         <v>720.72</v>
       </c>
-      <c r="D49">
+      <c r="D54" s="1">
         <v>2450.27</v>
       </c>
-      <c r="E49">
+      <c r="E54" s="1">
         <v>80.349999999999994</v>
       </c>
-      <c r="F49">
+      <c r="F54" s="1">
         <v>53.02</v>
       </c>
-      <c r="G49">
+      <c r="G54" s="1">
         <v>0.57530000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="B55" s="1">
         <v>696.08</v>
       </c>
-      <c r="C50">
+      <c r="C55" s="1">
         <v>645.6</v>
       </c>
-      <c r="D50">
+      <c r="D55" s="1">
         <v>2619.81</v>
       </c>
-      <c r="E50">
+      <c r="E55" s="1">
         <v>82.63</v>
       </c>
-      <c r="F50">
+      <c r="F55" s="1">
         <v>63.1</v>
       </c>
-      <c r="G50">
+      <c r="G55" s="1">
         <v>0.52761000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B51">
+      <c r="B56" s="1">
         <v>709.04</v>
       </c>
-      <c r="C51">
+      <c r="C56" s="1">
         <v>736.29</v>
       </c>
-      <c r="D51">
+      <c r="D56" s="1">
         <v>2380.4499999999998</v>
       </c>
-      <c r="E51">
+      <c r="E56" s="1">
         <v>76.81</v>
       </c>
-      <c r="F51">
+      <c r="F56" s="1">
         <v>51.44</v>
       </c>
-      <c r="G51">
+      <c r="G56" s="1">
         <v>0.63507999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="B57" s="1">
         <v>722.26</v>
       </c>
-      <c r="C52">
+      <c r="C57" s="1">
         <v>681</v>
       </c>
-      <c r="D52">
+      <c r="D57" s="1">
         <v>2425.13</v>
       </c>
-      <c r="E52">
+      <c r="E57" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="F52">
+      <c r="F57" s="1">
         <v>57.72</v>
       </c>
-      <c r="G52">
+      <c r="G57" s="1">
         <v>0.54620000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="B58" s="1">
         <v>696.71</v>
       </c>
-      <c r="C53">
+      <c r="C58" s="1">
         <v>658.54</v>
       </c>
-      <c r="D53">
+      <c r="D58" s="1">
         <v>2587.46</v>
       </c>
-      <c r="E53">
+      <c r="E58" s="1">
         <v>82.24</v>
       </c>
-      <c r="F53">
+      <c r="F58" s="1">
         <v>60.96</v>
       </c>
-      <c r="G53">
+      <c r="G58" s="1">
         <v>0.51171</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B54">
+      <c r="B59" s="1">
         <v>717.05</v>
       </c>
-      <c r="C54">
+      <c r="C59" s="1">
         <v>718.28</v>
       </c>
-      <c r="D54">
+      <c r="D59" s="1">
         <v>2377.8200000000002</v>
       </c>
-      <c r="E54">
+      <c r="E59" s="1">
         <v>74.31</v>
       </c>
-      <c r="F54">
+      <c r="F59" s="1">
         <v>53.28</v>
       </c>
-      <c r="G54">
+      <c r="G59" s="1">
         <v>0.59201000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="B60" s="1">
         <v>703.54</v>
       </c>
-      <c r="C55">
+      <c r="C60" s="1">
         <v>643.62</v>
       </c>
-      <c r="D55">
+      <c r="D60" s="1">
         <v>2577.8200000000002</v>
       </c>
-      <c r="E55">
+      <c r="E60" s="1">
         <v>78.88</v>
       </c>
-      <c r="F55">
+      <c r="F60" s="1">
         <v>63.45</v>
       </c>
-      <c r="G55">
+      <c r="G60" s="1">
         <v>0.55096000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="B61" s="1">
         <v>730.9</v>
       </c>
-      <c r="C56">
+      <c r="C61" s="1">
         <v>730.63</v>
       </c>
-      <c r="D56">
+      <c r="D61" s="1">
         <v>2311.2399999999998</v>
       </c>
-      <c r="E56">
+      <c r="E61" s="1">
         <v>70.819999999999993</v>
       </c>
-      <c r="F56">
+      <c r="F61" s="1">
         <v>52</v>
       </c>
-      <c r="G56">
+      <c r="G61" s="1">
         <v>0.64253000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B57">
+      <c r="B62" s="1">
         <v>712.91</v>
       </c>
-      <c r="C57">
+      <c r="C62" s="1">
         <v>726.01</v>
       </c>
-      <c r="D57">
+      <c r="D62" s="1">
         <v>2380.91</v>
       </c>
-      <c r="E57">
+      <c r="E62" s="1">
         <v>75.540000000000006</v>
       </c>
-      <c r="F57">
+      <c r="F62" s="1">
         <v>52.47</v>
       </c>
-      <c r="G57">
+      <c r="G62" s="1">
         <v>0.60855000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B63" s="1">
         <v>711.03</v>
       </c>
-      <c r="C58">
+      <c r="C63" s="1">
         <v>711.66</v>
       </c>
-      <c r="D58">
+      <c r="D63" s="1">
         <v>2412.56</v>
       </c>
-      <c r="E58">
+      <c r="E63" s="1">
         <v>76.14</v>
       </c>
-      <c r="F58">
+      <c r="F63" s="1">
         <v>54</v>
       </c>
-      <c r="G58">
+      <c r="G63" s="1">
         <v>0.57737000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B59">
+      <c r="B64" s="1">
         <v>698.92</v>
       </c>
-      <c r="C59">
+      <c r="C64" s="1">
         <v>717.9</v>
       </c>
-      <c r="D59">
+      <c r="D64" s="1">
         <v>2463.14</v>
       </c>
-      <c r="E59">
+      <c r="E64" s="1">
         <v>81.010000000000005</v>
       </c>
-      <c r="F59">
+      <c r="F64" s="1">
         <v>53.32</v>
       </c>
-      <c r="G59">
+      <c r="G64" s="1">
         <v>0.56345999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B60">
+      <c r="B65" s="1">
         <v>733.94</v>
       </c>
-      <c r="C60">
+      <c r="C65" s="1">
         <v>685.34</v>
       </c>
-      <c r="D60">
+      <c r="D65" s="1">
         <v>2380.23</v>
       </c>
-      <c r="E60">
+      <c r="E65" s="1">
         <v>70.150000000000006</v>
       </c>
-      <c r="F60">
+      <c r="F65" s="1">
         <v>57.15</v>
       </c>
-      <c r="G60">
+      <c r="G65" s="1">
         <v>0.55818000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B61">
+      <c r="B66" s="1">
         <v>701.02</v>
       </c>
-      <c r="C61">
+      <c r="C66" s="1">
         <v>720.35</v>
       </c>
-      <c r="D61">
+      <c r="D66" s="1">
         <v>2446.31</v>
       </c>
-      <c r="E61">
+      <c r="E66" s="1">
         <v>79.98</v>
       </c>
-      <c r="F61">
+      <c r="F66" s="1">
         <v>53.06</v>
       </c>
-      <c r="G61">
+      <c r="G66" s="1">
         <v>0.57562000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B67" s="1">
         <v>708.8</v>
       </c>
-      <c r="C62">
+      <c r="C67" s="1">
         <v>720.06</v>
       </c>
-      <c r="D62">
+      <c r="D67" s="1">
         <v>2407.98</v>
       </c>
-      <c r="E62">
+      <c r="E67" s="1">
         <v>76.89</v>
       </c>
-      <c r="F62">
+      <c r="F67" s="1">
         <v>53.09</v>
       </c>
-      <c r="G62">
+      <c r="G67" s="1">
         <v>0.58557000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="B68" s="1">
         <v>718.98</v>
       </c>
-      <c r="C63">
+      <c r="C68" s="1">
         <v>644.47</v>
       </c>
-      <c r="D63">
+      <c r="D68" s="1">
         <v>2510.67</v>
       </c>
-      <c r="E63">
+      <c r="E68" s="1">
         <v>73.77</v>
       </c>
-      <c r="F63">
+      <c r="F68" s="1">
         <v>63.3</v>
       </c>
-      <c r="G63">
+      <c r="G68" s="1">
         <v>0.56845000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B64">
+      <c r="B69" s="1">
         <v>693.04</v>
       </c>
-      <c r="C64">
+      <c r="C69" s="1">
         <v>728.45</v>
       </c>
-      <c r="D64">
+      <c r="D69" s="1">
         <v>2493.6799999999998</v>
       </c>
-      <c r="E64">
+      <c r="E69" s="1">
         <v>84.93</v>
       </c>
-      <c r="F64">
+      <c r="F69" s="1">
         <v>52.22</v>
       </c>
-      <c r="G64">
+      <c r="G69" s="1">
         <v>0.56301000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B65">
+      <c r="B70" s="1">
         <v>697.6</v>
       </c>
-      <c r="C65">
+      <c r="C70" s="1">
         <v>748.74</v>
       </c>
-      <c r="D65">
+      <c r="D70" s="1">
         <v>2422.06</v>
       </c>
-      <c r="E65">
+      <c r="E70" s="1">
         <v>81.72</v>
       </c>
-      <c r="F65">
+      <c r="F70" s="1">
         <v>50.26</v>
       </c>
-      <c r="G65">
+      <c r="G70" s="1">
         <v>0.67218</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B66">
+      <c r="B71" s="1">
         <v>720.92</v>
       </c>
-      <c r="C66">
+      <c r="C71" s="1">
         <v>710.31</v>
       </c>
-      <c r="D66">
+      <c r="D71" s="1">
         <v>2377.42</v>
       </c>
-      <c r="E66">
+      <c r="E71" s="1">
         <v>73.25</v>
       </c>
-      <c r="F66">
+      <c r="F71" s="1">
         <v>54.15</v>
       </c>
-      <c r="G66">
+      <c r="G71" s="1">
         <v>0.58660999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B67">
+      <c r="B72" s="1">
         <v>697.13</v>
       </c>
-      <c r="C67">
+      <c r="C72" s="1">
         <v>707.91</v>
       </c>
-      <c r="D67">
+      <c r="D72" s="1">
         <v>2492.16</v>
       </c>
-      <c r="E67">
+      <c r="E72" s="1">
         <v>81.99</v>
       </c>
-      <c r="F67">
+      <c r="F72" s="1">
         <v>54.42</v>
       </c>
-      <c r="G67">
+      <c r="G72" s="1">
         <v>0.54318999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B68">
+      <c r="B73" s="1">
         <v>705.34</v>
       </c>
-      <c r="C68">
+      <c r="C73" s="1">
         <v>717.25</v>
       </c>
-      <c r="D68">
+      <c r="D73" s="1">
         <v>2428.73</v>
       </c>
-      <c r="E68">
+      <c r="E73" s="1">
         <v>78.16</v>
       </c>
-      <c r="F68">
+      <c r="F73" s="1">
         <v>53.39</v>
       </c>
-      <c r="G68">
+      <c r="G73" s="1">
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B69">
+      <c r="B74" s="1">
         <v>701.82</v>
       </c>
-      <c r="C69">
+      <c r="C74" s="1">
         <v>636.57000000000005</v>
       </c>
-      <c r="D69">
+      <c r="D74" s="1">
         <v>2603.1999999999998</v>
       </c>
-      <c r="E69">
+      <c r="E74" s="1">
         <v>79.62</v>
       </c>
-      <c r="F69">
+      <c r="F74" s="1">
         <v>64.75</v>
       </c>
-      <c r="G69">
+      <c r="G74" s="1">
         <v>0.56501000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B75" s="1">
         <v>698.53</v>
       </c>
-      <c r="C70">
+      <c r="C75" s="1">
         <v>685.03</v>
       </c>
-      <c r="D70">
+      <c r="D75" s="1">
         <v>2523.2600000000002</v>
       </c>
-      <c r="E70">
+      <c r="E75" s="1">
         <v>81.209999999999994</v>
       </c>
-      <c r="F70">
+      <c r="F75" s="1">
         <v>57.19</v>
       </c>
-      <c r="G70">
+      <c r="G75" s="1">
         <v>0.51698999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B71">
+      <c r="B76" s="1">
         <v>696.32</v>
       </c>
-      <c r="C71">
+      <c r="C76" s="1">
         <v>651.59</v>
       </c>
-      <c r="D71">
+      <c r="D76" s="1">
         <v>2604.9699999999998</v>
       </c>
-      <c r="E71">
+      <c r="E76" s="1">
         <v>82.48</v>
       </c>
-      <c r="F71">
+      <c r="F76" s="1">
         <v>62.08</v>
       </c>
-      <c r="G71">
+      <c r="G76" s="1">
         <v>0.51807000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B72">
+      <c r="B77" s="1">
         <v>718.22</v>
       </c>
-      <c r="C72">
+      <c r="C77" s="1">
         <v>708.44</v>
       </c>
-      <c r="D72">
+      <c r="D77" s="1">
         <v>2390.1799999999998</v>
       </c>
-      <c r="E72">
+      <c r="E77" s="1">
         <v>73.98</v>
       </c>
-      <c r="F72">
+      <c r="F77" s="1">
         <v>54.36</v>
       </c>
-      <c r="G72">
+      <c r="G77" s="1">
         <v>0.57925000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B73">
+      <c r="B78" s="1">
         <v>723.12</v>
       </c>
-      <c r="C73">
+      <c r="C78" s="1">
         <v>742</v>
       </c>
-      <c r="D73">
+      <c r="D78" s="1">
         <v>2317.85</v>
       </c>
-      <c r="E73">
+      <c r="E78" s="1">
         <v>72.680000000000007</v>
       </c>
-      <c r="F73">
+      <c r="F78" s="1">
         <v>50.89</v>
       </c>
-      <c r="G73">
+      <c r="G78" s="1">
         <v>0.68172999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B79" s="1">
         <v>723.83</v>
       </c>
-      <c r="C74">
+      <c r="C79" s="1">
         <v>647.27</v>
       </c>
-      <c r="D74">
+      <c r="D79" s="1">
         <v>2487.77</v>
       </c>
-      <c r="E74">
+      <c r="E79" s="1">
         <v>72.5</v>
       </c>
-      <c r="F74">
+      <c r="F79" s="1">
         <v>62.81</v>
       </c>
-      <c r="G74">
+      <c r="G79" s="1">
         <v>0.56933</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B75">
+      <c r="B80" s="1">
         <v>705.34</v>
       </c>
-      <c r="C75">
+      <c r="C80" s="1">
         <v>720.16</v>
       </c>
-      <c r="D75">
+      <c r="D80" s="1">
         <v>2423.88</v>
       </c>
-      <c r="E75">
+      <c r="E80" s="1">
         <v>78.16</v>
       </c>
-      <c r="F75">
+      <c r="F80" s="1">
         <v>53.08</v>
       </c>
-      <c r="G75">
+      <c r="G80" s="1">
         <v>0.58235999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B76">
+      <c r="B81" s="1">
         <v>706.58</v>
       </c>
-      <c r="C76">
+      <c r="C81" s="1">
         <v>670.7</v>
       </c>
-      <c r="D76">
+      <c r="D81" s="1">
         <v>2506.52</v>
       </c>
-      <c r="E76">
+      <c r="E81" s="1">
         <v>77.69</v>
       </c>
-      <c r="F76">
+      <c r="F81" s="1">
         <v>59.14</v>
       </c>
-      <c r="G76">
+      <c r="G81" s="1">
         <v>0.52276999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B77">
+      <c r="B82" s="1">
         <v>722.26</v>
       </c>
-      <c r="C77">
+      <c r="C82" s="1">
         <v>677.8</v>
       </c>
-      <c r="D77">
+      <c r="D82" s="1">
         <v>2431.15</v>
       </c>
-      <c r="E77">
+      <c r="E82" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="F77">
+      <c r="F82" s="1">
         <v>58.15</v>
       </c>
-      <c r="G77">
+      <c r="G82" s="1">
         <v>0.54313</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B78">
+      <c r="B83" s="1">
         <v>706.17</v>
       </c>
-      <c r="C78">
+      <c r="C83" s="1">
         <v>716.6</v>
       </c>
-      <c r="D78">
+      <c r="D83" s="1">
         <v>2425.79</v>
       </c>
-      <c r="E78">
+      <c r="E83" s="1">
         <v>77.84</v>
       </c>
-      <c r="F78">
+      <c r="F83" s="1">
         <v>53.46</v>
       </c>
-      <c r="G78">
+      <c r="G83" s="1">
         <v>0.57533999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B79">
+      <c r="B84" s="1">
         <v>695.01</v>
       </c>
-      <c r="C79">
+      <c r="C84" s="1">
         <v>666.43</v>
       </c>
-      <c r="D79">
+      <c r="D84" s="1">
         <v>2585.08</v>
       </c>
-      <c r="E79">
+      <c r="E84" s="1">
         <v>83.35</v>
       </c>
-      <c r="F79">
+      <c r="F84" s="1">
         <v>59.76</v>
       </c>
-      <c r="G79">
+      <c r="G84" s="1">
         <v>0.49913000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B80">
+      <c r="B85" s="1">
         <v>714.25</v>
       </c>
-      <c r="C80">
+      <c r="C85" s="1">
         <v>651.89</v>
       </c>
-      <c r="D80">
+      <c r="D85" s="1">
         <v>2512.16</v>
       </c>
-      <c r="E80">
+      <c r="E85" s="1">
         <v>75.13</v>
       </c>
-      <c r="F80">
+      <c r="F85" s="1">
         <v>62.03</v>
       </c>
-      <c r="G80">
+      <c r="G85" s="1">
         <v>0.54994200000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B81">
+      <c r="B86" s="1">
         <v>712.4</v>
       </c>
-      <c r="C81">
+      <c r="C86" s="1">
         <v>743.06</v>
       </c>
-      <c r="D81">
+      <c r="D86" s="1">
         <v>2355.5</v>
       </c>
-      <c r="E81">
+      <c r="E86" s="1">
         <v>75.7</v>
       </c>
-      <c r="F81">
+      <c r="F86" s="1">
         <v>50.79</v>
       </c>
-      <c r="G81">
+      <c r="G86" s="1">
         <v>0.66925000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B82">
+      <c r="B87" s="1">
         <v>706.55</v>
       </c>
-      <c r="C82">
+      <c r="C87" s="1">
         <v>655.89</v>
       </c>
-      <c r="D82">
+      <c r="D87" s="1">
         <v>2536.5100000000002</v>
       </c>
-      <c r="E82">
+      <c r="E87" s="1">
         <v>77.7</v>
       </c>
-      <c r="F82">
+      <c r="F87" s="1">
         <v>61.38</v>
       </c>
-      <c r="G82">
+      <c r="G87" s="1">
         <v>0.53271999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B83">
+      <c r="B88" s="1">
         <v>713.33</v>
       </c>
-      <c r="C83">
+      <c r="C88" s="1">
         <v>727.86</v>
       </c>
-      <c r="D83">
+      <c r="D88" s="1">
         <v>2376.1999999999998</v>
       </c>
-      <c r="E83">
+      <c r="E88" s="1">
         <v>75.41</v>
       </c>
-      <c r="F83">
+      <c r="F88" s="1">
         <v>52.28</v>
       </c>
-      <c r="G83">
+      <c r="G88" s="1">
         <v>0.61428000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B84">
+      <c r="B89" s="1">
         <v>722.57</v>
       </c>
-      <c r="C84">
+      <c r="C89" s="1">
         <v>654.64</v>
       </c>
-      <c r="D84">
+      <c r="D89" s="1">
         <v>2476.1999999999998</v>
       </c>
-      <c r="E84">
+      <c r="E89" s="1">
         <v>72.819999999999993</v>
       </c>
-      <c r="F84">
+      <c r="F89" s="1">
         <v>61.58</v>
       </c>
-      <c r="G84">
+      <c r="G89" s="1">
         <v>0.55352999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B85">
+      <c r="B90" s="1">
         <v>696.16</v>
       </c>
-      <c r="C85">
+      <c r="C90" s="1">
         <v>693.66</v>
       </c>
-      <c r="D85">
+      <c r="D90" s="1">
         <v>2524.41</v>
       </c>
-      <c r="E85">
+      <c r="E90" s="1">
         <v>82.58</v>
       </c>
-      <c r="F85">
+      <c r="F90" s="1">
         <v>56.1</v>
       </c>
-      <c r="G85">
+      <c r="G90" s="1">
         <v>0.51719999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B86">
+      <c r="B91" s="1">
         <v>734.4</v>
       </c>
-      <c r="C86">
+      <c r="C91" s="1">
         <v>637.62</v>
       </c>
-      <c r="D86">
+      <c r="D91" s="1">
         <v>2476.62</v>
       </c>
-      <c r="E86">
+      <c r="E91" s="1">
         <v>70.05</v>
       </c>
-      <c r="F86">
+      <c r="F91" s="1">
         <v>64.55</v>
       </c>
-      <c r="G86">
+      <c r="G91" s="1">
         <v>0.59862000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B87">
+      <c r="B92" s="1">
         <v>724.88</v>
       </c>
-      <c r="C87">
+      <c r="C92" s="1">
         <v>738.56</v>
       </c>
-      <c r="D87">
+      <c r="D92" s="1">
         <v>2317.5</v>
       </c>
-      <c r="E87">
+      <c r="E92" s="1">
         <v>72.239999999999995</v>
       </c>
-      <c r="F87">
+      <c r="F92" s="1">
         <v>51.22</v>
       </c>
-      <c r="G87">
+      <c r="G92" s="1">
         <v>0.66757</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B88">
+      <c r="B93" s="1">
         <v>712.66</v>
       </c>
-      <c r="C88">
+      <c r="C93" s="1">
         <v>649.15</v>
       </c>
-      <c r="D88">
+      <c r="D93" s="1">
         <v>2524.36</v>
       </c>
-      <c r="E88">
+      <c r="E93" s="1">
         <v>75.62</v>
       </c>
-      <c r="F88">
+      <c r="F93" s="1">
         <v>62.49</v>
       </c>
-      <c r="G88">
+      <c r="G93" s="1">
         <v>0.54995000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B89">
+      <c r="B94" s="1">
         <v>705.21</v>
       </c>
-      <c r="C89">
+      <c r="C94" s="1">
         <v>723.2</v>
       </c>
-      <c r="D89">
+      <c r="D94" s="1">
         <v>2419.4499999999998</v>
       </c>
-      <c r="E89">
+      <c r="E94" s="1">
         <v>78.209999999999994</v>
       </c>
-      <c r="F89">
+      <c r="F94" s="1">
         <v>52.76</v>
       </c>
-      <c r="G89">
+      <c r="G94" s="1">
         <v>0.58938999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B90">
+      <c r="B95" s="1">
         <v>693.97</v>
       </c>
-      <c r="C90">
+      <c r="C95" s="1">
         <v>660.27</v>
       </c>
-      <c r="D90">
+      <c r="D95" s="1">
         <v>2607</v>
       </c>
-      <c r="E90">
+      <c r="E95" s="1">
         <v>84.13</v>
       </c>
-      <c r="F90">
+      <c r="F95" s="1">
         <v>60.69</v>
       </c>
-      <c r="G90">
+      <c r="G95" s="1">
         <v>0.49629000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B91">
+      <c r="B96" s="1">
         <v>696.43</v>
       </c>
-      <c r="C91">
+      <c r="C96" s="1">
         <v>644.47</v>
       </c>
-      <c r="D91">
+      <c r="D96" s="1">
         <v>2619.64</v>
       </c>
-      <c r="E91">
+      <c r="E96" s="1">
         <v>82.41</v>
       </c>
-      <c r="F91">
+      <c r="F96" s="1">
         <v>63.3</v>
       </c>
-      <c r="G91">
+      <c r="G96" s="1">
         <v>0.53081</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B92">
+      <c r="B97" s="1">
         <v>696.73</v>
       </c>
-      <c r="C92">
+      <c r="C97" s="1">
         <v>664.15</v>
       </c>
-      <c r="D92">
+      <c r="D97" s="1">
         <v>2575.9299999999998</v>
       </c>
-      <c r="E92">
+      <c r="E97" s="1">
         <v>82.23</v>
       </c>
-      <c r="F92">
+      <c r="F97" s="1">
         <v>60.1</v>
       </c>
-      <c r="G92">
+      <c r="G97" s="1">
         <v>0.50661999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B93">
-        <v>705.21</v>
-      </c>
-      <c r="C93">
-        <v>687.67</v>
-      </c>
-      <c r="D93">
-        <v>2481.06</v>
-      </c>
-      <c r="E93">
-        <v>78.209999999999994</v>
-      </c>
-      <c r="F93">
-        <v>56.85</v>
-      </c>
-      <c r="G93">
-        <v>0.52942</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B98" s="1">
+        <v>706.46</v>
+      </c>
+      <c r="C98" s="1">
+        <v>677.49</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2493.9699999999998</v>
+      </c>
+      <c r="E98" s="1">
+        <v>77.73</v>
+      </c>
+      <c r="F98" s="1">
+        <v>58.19</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.52873999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B94">
-        <v>711.16</v>
-      </c>
-      <c r="C94">
-        <v>731.43</v>
-      </c>
-      <c r="D94">
-        <v>2379.2399999999998</v>
-      </c>
-      <c r="E94">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="F94">
-        <v>51.92</v>
-      </c>
-      <c r="G94">
-        <v>0.62468000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B99" s="1">
+        <v>703.64</v>
+      </c>
+      <c r="C99" s="1">
+        <v>715.86</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2439.6</v>
+      </c>
+      <c r="E99" s="1">
+        <v>78.84</v>
+      </c>
+      <c r="F99" s="1">
+        <v>53.54</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.57069999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B95">
-        <v>694.95</v>
-      </c>
-      <c r="C95">
-        <v>676.85</v>
-      </c>
-      <c r="D95">
-        <v>2565.33</v>
-      </c>
-      <c r="E95">
-        <v>83.39</v>
-      </c>
-      <c r="F95">
-        <v>58.28</v>
-      </c>
-      <c r="G95">
-        <v>0.49682999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B100" s="1">
+        <v>694.87</v>
+      </c>
+      <c r="C100" s="1">
+        <v>706.94</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2511.71</v>
+      </c>
+      <c r="E100" s="1">
+        <v>83.45</v>
+      </c>
+      <c r="F100" s="1">
+        <v>54.53</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.53220000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B96">
-        <v>693.2</v>
-      </c>
-      <c r="C96">
-        <v>641.55999999999995</v>
-      </c>
-      <c r="D96">
-        <v>2655.07</v>
-      </c>
-      <c r="E96">
-        <v>84.78</v>
-      </c>
-      <c r="F96">
-        <v>63.82</v>
-      </c>
-      <c r="G96">
-        <v>0.51873000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B101" s="1">
+        <v>703.88</v>
+      </c>
+      <c r="C101" s="1">
+        <v>724.55</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2423.88</v>
+      </c>
+      <c r="E101" s="1">
+        <v>78.739999999999995</v>
+      </c>
+      <c r="F101" s="1">
+        <v>52.62</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.59033000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B97">
-        <v>704.08</v>
-      </c>
-      <c r="C97">
-        <v>738.87</v>
-      </c>
-      <c r="D97">
-        <v>2399.67</v>
-      </c>
-      <c r="E97">
-        <v>78.66</v>
-      </c>
-      <c r="F97">
-        <v>51.19</v>
-      </c>
-      <c r="G97">
-        <v>0.63897000000000004</v>
+      <c r="B102" s="1">
+        <v>710.07</v>
+      </c>
+      <c r="C102" s="1">
+        <v>709.24</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2420.7800000000002</v>
+      </c>
+      <c r="E102" s="1">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="F102" s="1">
+        <v>54.27</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.57196000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>732.02</v>
+      </c>
+      <c r="C103" s="1">
+        <v>680.25</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2395.4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="F103" s="1">
+        <v>57.82</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.55212000000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>695.6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>703.8</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2510.91</v>
+      </c>
+      <c r="E104" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="F104" s="1">
+        <v>54.89</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.52988999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>696.64</v>
+      </c>
+      <c r="C105" s="1">
+        <v>703.12</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2504.02</v>
+      </c>
+      <c r="E105" s="1">
+        <v>82.28</v>
+      </c>
+      <c r="F105" s="1">
+        <v>54.97</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.53502000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>721.8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>688.46</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2412.9299999999998</v>
+      </c>
+      <c r="E106" s="1">
+        <v>73.02</v>
+      </c>
+      <c r="F106" s="1">
+        <v>56.75</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.55225999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>704</v>
+      </c>
+      <c r="C107" s="1">
+        <v>675.54</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2509.7600000000002</v>
+      </c>
+      <c r="E107" s="1">
+        <v>78.69</v>
+      </c>
+      <c r="F107" s="1">
+        <v>58.46</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.51859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>734.03</v>
+      </c>
+      <c r="C108" s="1">
+        <v>665.69</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2417.56</v>
+      </c>
+      <c r="E108" s="1">
+        <v>70.13</v>
+      </c>
+      <c r="F108" s="1">
+        <v>59.87</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.55205000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>707.34</v>
+      </c>
+      <c r="C109" s="1">
+        <v>729.24</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2399.4499999999998</v>
+      </c>
+      <c r="E109" s="1">
+        <v>77.41</v>
+      </c>
+      <c r="F109" s="1">
+        <v>52.14</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.61107999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>723.39</v>
+      </c>
+      <c r="C110" s="1">
+        <v>721.39</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2350.35</v>
+      </c>
+      <c r="E110" s="1">
+        <v>72.61</v>
+      </c>
+      <c r="F110" s="1">
+        <v>52.95</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.61087000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>698.78</v>
+      </c>
+      <c r="C111" s="1">
+        <v>645.95000000000005</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2599.9899999999998</v>
+      </c>
+      <c r="E111" s="1">
+        <v>81.08</v>
+      </c>
+      <c r="F111" s="1">
+        <v>63.04</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.53561000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>731.48</v>
+      </c>
+      <c r="C112" s="1">
+        <v>704.15</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2353.92</v>
+      </c>
+      <c r="E112" s="1">
+        <v>70.69</v>
+      </c>
+      <c r="F112" s="1">
+        <v>54.85</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.58311000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>709.12</v>
+      </c>
+      <c r="C113" s="1">
+        <v>671.4</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2493.63</v>
+      </c>
+      <c r="E113" s="1">
+        <v>76.78</v>
+      </c>
+      <c r="F113" s="1">
+        <v>59.04</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.52569999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>710.24</v>
+      </c>
+      <c r="C114" s="1">
+        <v>651.95000000000005</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2528.31</v>
+      </c>
+      <c r="E114" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F114" s="1">
+        <v>62.02</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.54318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>721.83</v>
+      </c>
+      <c r="C115" s="1">
+        <v>681.45</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2425.7399999999998</v>
+      </c>
+      <c r="E115" s="1">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="F115" s="1">
+        <v>57.66</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.54649000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>699.58</v>
+      </c>
+      <c r="C116" s="1">
+        <v>651.77</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2582.29</v>
+      </c>
+      <c r="E116" s="1">
+        <v>80.67</v>
+      </c>
+      <c r="F116" s="1">
+        <v>62.05</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.52907000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>700.32</v>
+      </c>
+      <c r="C117" s="1">
+        <v>747.23</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2407.02</v>
+      </c>
+      <c r="E117" s="1">
+        <v>80.31</v>
+      </c>
+      <c r="F117" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.66493999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>704.55</v>
+      </c>
+      <c r="C118" s="1">
+        <v>675.47</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2507.14</v>
+      </c>
+      <c r="E118" s="1">
+        <v>78.47</v>
+      </c>
+      <c r="F118" s="1">
+        <v>58.47</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.51951000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>695.8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>718.84</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2483.71</v>
+      </c>
+      <c r="E119" s="1">
+        <v>82.81</v>
+      </c>
+      <c r="F119" s="1">
+        <v>53.22</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.55335999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>728.67</v>
+      </c>
+      <c r="C120" s="1">
+        <v>700.64</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2368.67</v>
+      </c>
+      <c r="E120" s="1">
+        <v>71.33</v>
+      </c>
+      <c r="F120" s="1">
+        <v>55.26</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.57657999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>693.28</v>
+      </c>
+      <c r="C121" s="1">
+        <v>731.33</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2486.3200000000002</v>
+      </c>
+      <c r="E121" s="1">
+        <v>84.71</v>
+      </c>
+      <c r="F121" s="1">
+        <v>51.93</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.57369000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>716.35</v>
+      </c>
+      <c r="C122" s="1">
+        <v>745.51</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2336.2800000000002</v>
+      </c>
+      <c r="E122" s="1">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="F122" s="1">
+        <v>50.56</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.68557000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>732.11</v>
+      </c>
+      <c r="C123" s="1">
+        <v>689.56</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2377.92</v>
+      </c>
+      <c r="E123" s="1">
+        <v>70.55</v>
+      </c>
+      <c r="F123" s="1">
+        <v>56.61</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.56027000000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>696.64</v>
+      </c>
+      <c r="C124" s="1">
+        <v>650.63</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2604.5700000000002</v>
+      </c>
+      <c r="E124" s="1">
+        <v>82.28</v>
+      </c>
+      <c r="F124" s="1">
+        <v>62.24</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.52141000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>716.07</v>
+      </c>
+      <c r="C125" s="1">
+        <v>642.34</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2526.11</v>
+      </c>
+      <c r="E125" s="1">
+        <v>74.59</v>
+      </c>
+      <c r="F125" s="1">
+        <v>63.68</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.56823999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>721.95</v>
+      </c>
+      <c r="C126" s="1">
+        <v>664.75</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2457.6</v>
+      </c>
+      <c r="E126" s="1">
+        <v>72.98</v>
+      </c>
+      <c r="F126" s="1">
+        <v>60.01</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.54408886999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>697.48</v>
+      </c>
+      <c r="C127" s="1">
+        <v>694.64</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2512.96</v>
+      </c>
+      <c r="E127" s="1">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="F127" s="1">
+        <v>55.98</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.52329340000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>723.12</v>
+      </c>
+      <c r="C128" s="1">
+        <v>691.56</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2402.81</v>
+      </c>
+      <c r="E128" s="1">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="F128" s="1">
+        <v>56.36</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.55713690999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>713.27</v>
+      </c>
+      <c r="C129" s="1">
+        <v>645.89</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2529.04</v>
+      </c>
+      <c r="E129" s="1">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="F129" s="1">
+        <v>63.05</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.55862650999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>717.47</v>
+      </c>
+      <c r="C130" s="1">
+        <v>694.89</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2416.64</v>
+      </c>
+      <c r="E130" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="F130" s="1">
+        <v>55.95</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.55452018000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>700.59</v>
+      </c>
+      <c r="C131" s="1">
+        <v>646.75</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2587.08</v>
+      </c>
+      <c r="E131" s="1">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="F131" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.54071670000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>724.51</v>
+      </c>
+      <c r="C132" s="1">
+        <v>717.25</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2353.54</v>
+      </c>
+      <c r="E132" s="1">
+        <v>72.33</v>
+      </c>
+      <c r="F132" s="1">
+        <v>53.39</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.60040543999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>696.25</v>
+      </c>
+      <c r="C133" s="1">
+        <v>644.52</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2620.86</v>
+      </c>
+      <c r="E133" s="1">
+        <v>82.52</v>
+      </c>
+      <c r="F133" s="1">
+        <v>63.29</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.52944875999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>708.89</v>
+      </c>
+      <c r="C134" s="1">
+        <v>655.64</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2526.4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="F134" s="1">
+        <v>61.42</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.53536976999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>717.61</v>
+      </c>
+      <c r="C135" s="1">
+        <v>663.42</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2475.6</v>
+      </c>
+      <c r="E135" s="1">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="F135" s="1">
+        <v>60.21</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.53850989000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>702.99</v>
+      </c>
+      <c r="C136" s="1">
+        <v>655.95</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2554.08</v>
+      </c>
+      <c r="E136" s="1">
+        <v>79.11</v>
+      </c>
+      <c r="F136" s="1">
+        <v>61.37</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.52897077999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>694.07</v>
+      </c>
+      <c r="C137" s="1">
+        <v>653.41</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2620.2800000000002</v>
+      </c>
+      <c r="E137" s="1">
+        <v>84.05</v>
+      </c>
+      <c r="F137" s="1">
+        <v>61.78</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.50367961999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>724.35</v>
+      </c>
+      <c r="C138" s="1">
+        <v>724.07</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2342.73</v>
+      </c>
+      <c r="E138" s="1">
+        <v>72.37</v>
+      </c>
+      <c r="F138" s="1">
+        <v>52.67</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.61551418000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>724.35</v>
+      </c>
+      <c r="C139" s="1">
+        <v>682.51</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2415.3000000000002</v>
+      </c>
+      <c r="E139" s="1">
+        <v>72.37</v>
+      </c>
+      <c r="F139" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.55187162999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>732.79</v>
+      </c>
+      <c r="C140" s="1">
+        <v>681.22</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2391.27</v>
+      </c>
+      <c r="E140" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F140" s="1">
+        <v>57.69</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.55418290000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>711.4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>640.74</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2548.15</v>
+      </c>
+      <c r="E141" s="1">
+        <v>76.02</v>
+      </c>
+      <c r="F141" s="1">
+        <v>63.97</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.56788245999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>727.4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>747.87</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2294.64</v>
+      </c>
+      <c r="E142" s="1">
+        <v>71.63</v>
+      </c>
+      <c r="F142" s="1">
+        <v>50.34</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.71425545000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>699.33</v>
+      </c>
+      <c r="C143" s="1">
+        <v>652.07000000000005</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2583.2600000000002</v>
+      </c>
+      <c r="E143" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="F143" s="1">
+        <v>62</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.52802422999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>699.33</v>
+      </c>
+      <c r="C144" s="1">
+        <v>639.82000000000005</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2610.31</v>
+      </c>
+      <c r="E144" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="F144" s="1">
+        <v>64.14</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0.55072582999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>733.52</v>
+      </c>
+      <c r="C145" s="1">
+        <v>702.77</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2350.21</v>
+      </c>
+      <c r="E145" s="1">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="F145" s="1">
+        <v>55.01</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.58190299000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>734.54</v>
+      </c>
+      <c r="C146" s="1">
+        <v>675.61</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2396.6999999999998</v>
+      </c>
+      <c r="E146" s="1">
+        <v>70.02</v>
+      </c>
+      <c r="F146" s="1">
+        <v>58.45</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.55081815000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>707.45</v>
+      </c>
+      <c r="C147" s="1">
+        <v>717.07</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2419.08</v>
+      </c>
+      <c r="E147" s="1">
+        <v>77.37</v>
+      </c>
+      <c r="F147" s="1">
+        <v>53.41</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0.57639468000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>725.65</v>
+      </c>
+      <c r="C148" s="1">
+        <v>654.21</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2466.9</v>
+      </c>
+      <c r="E148" s="1">
+        <v>72.05</v>
+      </c>
+      <c r="F148" s="1">
+        <v>61.65</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.56042789000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>708.26</v>
+      </c>
+      <c r="C149" s="1">
+        <v>736.39</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2383.7199999999998</v>
+      </c>
+      <c r="E149" s="1">
+        <v>77.08</v>
+      </c>
+      <c r="F149" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.63429212000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>696.51</v>
+      </c>
+      <c r="C150" s="1">
+        <v>676.92</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2552.59</v>
+      </c>
+      <c r="E150" s="1">
+        <v>82.36</v>
+      </c>
+      <c r="F150" s="1">
+        <v>58.27</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.50194083</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>700.2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>642.16999999999996</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2599.64</v>
+      </c>
+      <c r="E151" s="1">
+        <v>80.37</v>
+      </c>
+      <c r="F151" s="1">
+        <v>63.71</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.54870878999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>713.66</v>
+      </c>
+      <c r="C152" s="1">
+        <v>663.02</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2491.42</v>
+      </c>
+      <c r="E152" s="1">
+        <v>75.31</v>
+      </c>
+      <c r="F152" s="1">
+        <v>60.27</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0.53506577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>703.2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>730.53</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2417.6</v>
+      </c>
+      <c r="E153" s="1">
+        <v>79.02</v>
+      </c>
+      <c r="F153" s="1">
+        <v>52.01</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.60671691000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>713.76</v>
+      </c>
+      <c r="C154" s="1">
+        <v>643.16999999999996</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2533.15</v>
+      </c>
+      <c r="E154" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="F154" s="1">
+        <v>63.53</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0.56599666999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>732.38</v>
+      </c>
+      <c r="C155" s="1">
+        <v>718.93</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2326.04</v>
+      </c>
+      <c r="E155" s="1">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="F155" s="1">
+        <v>53.21</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.60469521000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>715.56</v>
+      </c>
+      <c r="C156" s="1">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2505.1799999999998</v>
+      </c>
+      <c r="E156" s="1">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="F156" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.54900592999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>731.26</v>
+      </c>
+      <c r="C157" s="1">
+        <v>695.87</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2369.15</v>
+      </c>
+      <c r="E157" s="1">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="F157" s="1">
+        <v>55.83</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.56868989000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>711.65</v>
+      </c>
+      <c r="C158" s="1">
+        <v>710.94</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2411.23</v>
+      </c>
+      <c r="E158" s="1">
+        <v>75.94</v>
+      </c>
+      <c r="F158" s="1">
+        <v>54.08</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0.57582690000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>709.8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>732.43</v>
+      </c>
+      <c r="D159" s="1">
+        <v>2383.36</v>
+      </c>
+      <c r="E159" s="1">
+        <v>76.55</v>
+      </c>
+      <c r="F159" s="1">
+        <v>51.82</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0.62493142999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>696.11</v>
+      </c>
+      <c r="C160" s="1">
+        <v>647.33000000000004</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2615.77</v>
+      </c>
+      <c r="E160" s="1">
+        <v>82.61</v>
+      </c>
+      <c r="F160" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0.52414958</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>697.78</v>
+      </c>
+      <c r="C161" s="1">
+        <v>728.55</v>
+      </c>
+      <c r="D161" s="1">
+        <v>2453.0700000000002</v>
+      </c>
+      <c r="E161" s="1">
+        <v>81.62</v>
+      </c>
+      <c r="F161" s="1">
+        <v>52.21</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.58675973999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>694.22</v>
+      </c>
+      <c r="C162" s="1">
+        <v>716.14</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2501.91</v>
+      </c>
+      <c r="E162" s="1">
+        <v>83.93</v>
+      </c>
+      <c r="F162" s="1">
+        <v>53.51</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.54141691000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>695.31</v>
+      </c>
+      <c r="C163" s="1">
+        <v>638.74</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2641.55</v>
+      </c>
+      <c r="E163" s="1">
+        <v>83.14</v>
+      </c>
+      <c r="F163" s="1">
+        <v>64.34</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0.53681484999999995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>695.6</v>
+      </c>
+      <c r="C164" s="1">
+        <v>674.39</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2564.54</v>
+      </c>
+      <c r="E164" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="F164" s="1">
+        <v>58.62</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.49750473000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>696.27</v>
+      </c>
+      <c r="C165" s="1">
+        <v>685.8</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2537.8200000000002</v>
+      </c>
+      <c r="E165" s="1">
+        <v>82.51</v>
+      </c>
+      <c r="F165" s="1">
+        <v>57.09</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.50983144999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>694.42</v>
+      </c>
+      <c r="C166" s="1">
+        <v>724.55</v>
+      </c>
+      <c r="D166" s="1">
+        <v>2486.08</v>
+      </c>
+      <c r="E166" s="1">
+        <v>83.78</v>
+      </c>
+      <c r="F166" s="1">
+        <v>52.62</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0.55772988999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>697.8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>750.05</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2418.66</v>
+      </c>
+      <c r="E167" s="1">
+        <v>81.61</v>
+      </c>
+      <c r="F167" s="1">
+        <v>50.14</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0.68403205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>708.01</v>
+      </c>
+      <c r="C168" s="1">
+        <v>738.35</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2381.7199999999998</v>
+      </c>
+      <c r="E168" s="1">
+        <v>77.17</v>
+      </c>
+      <c r="F168" s="1">
+        <v>51.24</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.64274224000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>702.59</v>
+      </c>
+      <c r="C169" s="1">
+        <v>708.27</v>
+      </c>
+      <c r="D169" s="1">
+        <v>2458.0100000000002</v>
+      </c>
+      <c r="E169" s="1">
+        <v>79.28</v>
+      </c>
+      <c r="F169" s="1">
+        <v>54.38</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.55900671999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>693.75</v>
+      </c>
+      <c r="C170" s="1">
+        <v>670.08</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2589.61</v>
+      </c>
+      <c r="E170" s="1">
+        <v>84.31</v>
+      </c>
+      <c r="F170" s="1">
+        <v>59.23</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0.48851489999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>708.89</v>
+      </c>
+      <c r="C171" s="1">
+        <v>663.68</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2509.91</v>
+      </c>
+      <c r="E171" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="F171" s="1">
+        <v>60.17</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.52842676</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>697.48</v>
+      </c>
+      <c r="C172" s="1">
+        <v>733.75</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2446.73</v>
+      </c>
+      <c r="E172" s="1">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="F172" s="1">
+        <v>51.69</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0.60085142000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>720.31</v>
+      </c>
+      <c r="C173" s="1">
+        <v>691.16</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2413.15</v>
+      </c>
+      <c r="E173" s="1">
+        <v>73.41</v>
+      </c>
+      <c r="F173" s="1">
+        <v>56.41</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.55494319999999997</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemca\Desktop\MLR_CarStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382CD03-A35F-419E-B5AB-49E756F4E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE20680-8ADA-4C1A-AED9-10B31229769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2160" windowWidth="24915" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="1935" windowWidth="24915" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,22 +2678,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>706.46</v>
+        <v>705.21</v>
       </c>
       <c r="C98" s="1">
-        <v>677.49</v>
+        <v>687.67</v>
       </c>
       <c r="D98" s="1">
-        <v>2493.9699999999998</v>
+        <v>2481.06</v>
       </c>
       <c r="E98" s="1">
-        <v>77.73</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="F98" s="1">
-        <v>58.19</v>
-      </c>
-      <c r="G98" s="2">
-        <v>0.52873999999999999</v>
+        <v>56.85</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.52942</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2701,22 +2701,22 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>703.64</v>
+        <v>711.16</v>
       </c>
       <c r="C99" s="1">
-        <v>715.86</v>
+        <v>731.43</v>
       </c>
       <c r="D99" s="1">
-        <v>2439.6</v>
+        <v>2379.2399999999998</v>
       </c>
       <c r="E99" s="1">
-        <v>78.84</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F99" s="1">
-        <v>53.54</v>
-      </c>
-      <c r="G99" s="2">
-        <v>0.57069999999999999</v>
+        <v>51.92</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.62468000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2724,22 +2724,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>694.87</v>
+        <v>694.95</v>
       </c>
       <c r="C100" s="1">
-        <v>706.94</v>
+        <v>676.85</v>
       </c>
       <c r="D100" s="1">
-        <v>2511.71</v>
+        <v>2565.33</v>
       </c>
       <c r="E100" s="1">
-        <v>83.45</v>
+        <v>83.39</v>
       </c>
       <c r="F100" s="1">
-        <v>54.53</v>
-      </c>
-      <c r="G100" s="2">
-        <v>0.53220000000000001</v>
+        <v>58.28</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.49682999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2747,22 +2747,22 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>703.88</v>
+        <v>693.2</v>
       </c>
       <c r="C101" s="1">
-        <v>724.55</v>
+        <v>641.55999999999995</v>
       </c>
       <c r="D101" s="1">
-        <v>2423.88</v>
+        <v>2655.07</v>
       </c>
       <c r="E101" s="1">
-        <v>78.739999999999995</v>
+        <v>84.78</v>
       </c>
       <c r="F101" s="1">
-        <v>52.62</v>
-      </c>
-      <c r="G101" s="2">
-        <v>0.59033000000000002</v>
+        <v>63.82</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.51873000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2770,1654 +2770,4989 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>710.07</v>
+        <v>704.08</v>
       </c>
       <c r="C102" s="1">
-        <v>709.24</v>
+        <v>738.87</v>
       </c>
       <c r="D102" s="1">
-        <v>2420.7800000000002</v>
+        <v>2399.67</v>
       </c>
       <c r="E102" s="1">
-        <v>76.459999999999994</v>
+        <v>78.66</v>
       </c>
       <c r="F102" s="1">
-        <v>54.27</v>
-      </c>
-      <c r="G102" s="2">
-        <v>0.57196000000000002</v>
+        <v>51.19</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.63897000000000004</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1">
-        <v>732.02</v>
+        <v>706.46</v>
       </c>
       <c r="C103" s="1">
-        <v>680.25</v>
+        <v>677.49</v>
       </c>
       <c r="D103" s="1">
-        <v>2395.4</v>
+        <v>2493.9699999999998</v>
       </c>
       <c r="E103" s="1">
-        <v>70.569999999999993</v>
+        <v>77.73</v>
       </c>
       <c r="F103" s="1">
-        <v>57.82</v>
+        <v>58.19</v>
       </c>
       <c r="G103" s="2">
-        <v>0.55212000000000006</v>
+        <v>0.52873999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>695.6</v>
+        <v>703.64</v>
       </c>
       <c r="C104" s="1">
-        <v>703.8</v>
+        <v>715.86</v>
       </c>
       <c r="D104" s="1">
-        <v>2510.91</v>
+        <v>2439.6</v>
       </c>
       <c r="E104" s="1">
-        <v>82.94</v>
+        <v>78.84</v>
       </c>
       <c r="F104" s="1">
-        <v>54.89</v>
+        <v>53.54</v>
       </c>
       <c r="G104" s="2">
-        <v>0.52988999999999997</v>
+        <v>0.57069999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
-        <v>696.64</v>
+        <v>694.87</v>
       </c>
       <c r="C105" s="1">
-        <v>703.12</v>
+        <v>706.94</v>
       </c>
       <c r="D105" s="1">
-        <v>2504.02</v>
+        <v>2511.71</v>
       </c>
       <c r="E105" s="1">
-        <v>82.28</v>
+        <v>83.45</v>
       </c>
       <c r="F105" s="1">
-        <v>54.97</v>
+        <v>54.53</v>
       </c>
       <c r="G105" s="2">
-        <v>0.53502000000000005</v>
+        <v>0.53220000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B106" s="1">
-        <v>721.8</v>
+        <v>703.88</v>
       </c>
       <c r="C106" s="1">
-        <v>688.46</v>
+        <v>724.55</v>
       </c>
       <c r="D106" s="1">
-        <v>2412.9299999999998</v>
+        <v>2423.88</v>
       </c>
       <c r="E106" s="1">
-        <v>73.02</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="F106" s="1">
-        <v>56.75</v>
+        <v>52.62</v>
       </c>
       <c r="G106" s="2">
-        <v>0.55225999999999997</v>
+        <v>0.59033000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B107" s="1">
-        <v>704</v>
+        <v>710.07</v>
       </c>
       <c r="C107" s="1">
-        <v>675.54</v>
+        <v>709.24</v>
       </c>
       <c r="D107" s="1">
-        <v>2509.7600000000002</v>
+        <v>2420.7800000000002</v>
       </c>
       <c r="E107" s="1">
-        <v>78.69</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="F107" s="1">
-        <v>58.46</v>
+        <v>54.27</v>
       </c>
       <c r="G107" s="2">
-        <v>0.51859</v>
+        <v>0.57196000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B108" s="1">
-        <v>734.03</v>
+        <v>732.02</v>
       </c>
       <c r="C108" s="1">
-        <v>665.69</v>
+        <v>680.25</v>
       </c>
       <c r="D108" s="1">
-        <v>2417.56</v>
+        <v>2395.4</v>
       </c>
       <c r="E108" s="1">
-        <v>70.13</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="F108" s="1">
-        <v>59.87</v>
+        <v>57.82</v>
       </c>
       <c r="G108" s="2">
-        <v>0.55205000000000004</v>
+        <v>0.55212000000000006</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="B109" s="1">
-        <v>707.34</v>
+        <v>695.6</v>
       </c>
       <c r="C109" s="1">
-        <v>729.24</v>
+        <v>703.8</v>
       </c>
       <c r="D109" s="1">
-        <v>2399.4499999999998</v>
+        <v>2510.91</v>
       </c>
       <c r="E109" s="1">
-        <v>77.41</v>
+        <v>82.94</v>
       </c>
       <c r="F109" s="1">
-        <v>52.14</v>
+        <v>54.89</v>
       </c>
       <c r="G109" s="2">
-        <v>0.61107999999999996</v>
+        <v>0.52988999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1">
-        <v>723.39</v>
+        <v>696.64</v>
       </c>
       <c r="C110" s="1">
-        <v>721.39</v>
+        <v>703.12</v>
       </c>
       <c r="D110" s="1">
-        <v>2350.35</v>
+        <v>2504.02</v>
       </c>
       <c r="E110" s="1">
-        <v>72.61</v>
+        <v>82.28</v>
       </c>
       <c r="F110" s="1">
-        <v>52.95</v>
+        <v>54.97</v>
       </c>
       <c r="G110" s="2">
-        <v>0.61087000000000002</v>
+        <v>0.53502000000000005</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
-        <v>698.78</v>
+        <v>721.8</v>
       </c>
       <c r="C111" s="1">
-        <v>645.95000000000005</v>
+        <v>688.46</v>
       </c>
       <c r="D111" s="1">
-        <v>2599.9899999999998</v>
+        <v>2412.9299999999998</v>
       </c>
       <c r="E111" s="1">
-        <v>81.08</v>
+        <v>73.02</v>
       </c>
       <c r="F111" s="1">
-        <v>63.04</v>
+        <v>56.75</v>
       </c>
       <c r="G111" s="2">
-        <v>0.53561000000000003</v>
+        <v>0.55225999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
-        <v>731.48</v>
+        <v>704</v>
       </c>
       <c r="C112" s="1">
-        <v>704.15</v>
+        <v>675.54</v>
       </c>
       <c r="D112" s="1">
-        <v>2353.92</v>
+        <v>2509.7600000000002</v>
       </c>
       <c r="E112" s="1">
-        <v>70.69</v>
+        <v>78.69</v>
       </c>
       <c r="F112" s="1">
-        <v>54.85</v>
+        <v>58.46</v>
       </c>
       <c r="G112" s="2">
-        <v>0.58311000000000002</v>
+        <v>0.51859</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1">
-        <v>709.12</v>
+        <v>734.03</v>
       </c>
       <c r="C113" s="1">
-        <v>671.4</v>
+        <v>665.69</v>
       </c>
       <c r="D113" s="1">
-        <v>2493.63</v>
+        <v>2417.56</v>
       </c>
       <c r="E113" s="1">
-        <v>76.78</v>
+        <v>70.13</v>
       </c>
       <c r="F113" s="1">
-        <v>59.04</v>
+        <v>59.87</v>
       </c>
       <c r="G113" s="2">
-        <v>0.52569999999999995</v>
+        <v>0.55205000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B114" s="1">
-        <v>710.24</v>
+        <v>707.34</v>
       </c>
       <c r="C114" s="1">
-        <v>651.95000000000005</v>
+        <v>729.24</v>
       </c>
       <c r="D114" s="1">
-        <v>2528.31</v>
+        <v>2399.4499999999998</v>
       </c>
       <c r="E114" s="1">
-        <v>76.400000000000006</v>
+        <v>77.41</v>
       </c>
       <c r="F114" s="1">
-        <v>62.02</v>
+        <v>52.14</v>
       </c>
       <c r="G114" s="2">
-        <v>0.54318</v>
+        <v>0.61107999999999996</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="B115" s="1">
-        <v>721.83</v>
+        <v>723.39</v>
       </c>
       <c r="C115" s="1">
-        <v>681.45</v>
+        <v>721.39</v>
       </c>
       <c r="D115" s="1">
-        <v>2425.7399999999998</v>
+        <v>2350.35</v>
       </c>
       <c r="E115" s="1">
-        <v>73.010000000000005</v>
+        <v>72.61</v>
       </c>
       <c r="F115" s="1">
-        <v>57.66</v>
+        <v>52.95</v>
       </c>
       <c r="G115" s="2">
-        <v>0.54649000000000003</v>
+        <v>0.61087000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B116" s="1">
-        <v>699.58</v>
+        <v>698.78</v>
       </c>
       <c r="C116" s="1">
-        <v>651.77</v>
+        <v>645.95000000000005</v>
       </c>
       <c r="D116" s="1">
-        <v>2582.29</v>
+        <v>2599.9899999999998</v>
       </c>
       <c r="E116" s="1">
-        <v>80.67</v>
+        <v>81.08</v>
       </c>
       <c r="F116" s="1">
-        <v>62.05</v>
+        <v>63.04</v>
       </c>
       <c r="G116" s="2">
-        <v>0.52907000000000004</v>
+        <v>0.53561000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B117" s="1">
-        <v>700.32</v>
+        <v>731.48</v>
       </c>
       <c r="C117" s="1">
-        <v>747.23</v>
+        <v>704.15</v>
       </c>
       <c r="D117" s="1">
-        <v>2407.02</v>
+        <v>2353.92</v>
       </c>
       <c r="E117" s="1">
-        <v>80.31</v>
+        <v>70.69</v>
       </c>
       <c r="F117" s="1">
-        <v>50.4</v>
+        <v>54.85</v>
       </c>
       <c r="G117" s="2">
-        <v>0.66493999999999998</v>
+        <v>0.58311000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="B118" s="1">
-        <v>704.55</v>
+        <v>709.12</v>
       </c>
       <c r="C118" s="1">
-        <v>675.47</v>
+        <v>671.4</v>
       </c>
       <c r="D118" s="1">
-        <v>2507.14</v>
+        <v>2493.63</v>
       </c>
       <c r="E118" s="1">
-        <v>78.47</v>
+        <v>76.78</v>
       </c>
       <c r="F118" s="1">
-        <v>58.47</v>
+        <v>59.04</v>
       </c>
       <c r="G118" s="2">
-        <v>0.51951000000000003</v>
+        <v>0.52569999999999995</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1">
-        <v>695.8</v>
+        <v>710.24</v>
       </c>
       <c r="C119" s="1">
-        <v>718.84</v>
+        <v>651.95000000000005</v>
       </c>
       <c r="D119" s="1">
-        <v>2483.71</v>
+        <v>2528.31</v>
       </c>
       <c r="E119" s="1">
-        <v>82.81</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="F119" s="1">
-        <v>53.22</v>
+        <v>62.02</v>
       </c>
       <c r="G119" s="2">
-        <v>0.55335999999999996</v>
+        <v>0.54318</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B120" s="1">
-        <v>728.67</v>
+        <v>721.83</v>
       </c>
       <c r="C120" s="1">
-        <v>700.64</v>
+        <v>681.45</v>
       </c>
       <c r="D120" s="1">
-        <v>2368.67</v>
+        <v>2425.7399999999998</v>
       </c>
       <c r="E120" s="1">
-        <v>71.33</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="F120" s="1">
-        <v>55.26</v>
+        <v>57.66</v>
       </c>
       <c r="G120" s="2">
-        <v>0.57657999999999998</v>
+        <v>0.54649000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1">
-        <v>693.28</v>
+        <v>699.58</v>
       </c>
       <c r="C121" s="1">
-        <v>731.33</v>
+        <v>651.77</v>
       </c>
       <c r="D121" s="1">
-        <v>2486.3200000000002</v>
+        <v>2582.29</v>
       </c>
       <c r="E121" s="1">
-        <v>84.71</v>
+        <v>80.67</v>
       </c>
       <c r="F121" s="1">
-        <v>51.93</v>
+        <v>62.05</v>
       </c>
       <c r="G121" s="2">
-        <v>0.57369000000000003</v>
+        <v>0.52907000000000004</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B122" s="1">
-        <v>716.35</v>
+        <v>700.32</v>
       </c>
       <c r="C122" s="1">
-        <v>745.51</v>
+        <v>747.23</v>
       </c>
       <c r="D122" s="1">
-        <v>2336.2800000000002</v>
+        <v>2407.02</v>
       </c>
       <c r="E122" s="1">
-        <v>74.510000000000005</v>
+        <v>80.31</v>
       </c>
       <c r="F122" s="1">
-        <v>50.56</v>
+        <v>50.4</v>
       </c>
       <c r="G122" s="2">
-        <v>0.68557000000000001</v>
+        <v>0.66493999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1">
-        <v>732.11</v>
+        <v>704.55</v>
       </c>
       <c r="C123" s="1">
-        <v>689.56</v>
+        <v>675.47</v>
       </c>
       <c r="D123" s="1">
-        <v>2377.92</v>
+        <v>2507.14</v>
       </c>
       <c r="E123" s="1">
-        <v>70.55</v>
+        <v>78.47</v>
       </c>
       <c r="F123" s="1">
-        <v>56.61</v>
+        <v>58.47</v>
       </c>
       <c r="G123" s="2">
-        <v>0.56027000000000005</v>
+        <v>0.51951000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B124" s="1">
-        <v>696.64</v>
+        <v>695.8</v>
       </c>
       <c r="C124" s="1">
-        <v>650.63</v>
+        <v>718.84</v>
       </c>
       <c r="D124" s="1">
-        <v>2604.5700000000002</v>
+        <v>2483.71</v>
       </c>
       <c r="E124" s="1">
-        <v>82.28</v>
+        <v>82.81</v>
       </c>
       <c r="F124" s="1">
-        <v>62.24</v>
+        <v>53.22</v>
       </c>
       <c r="G124" s="2">
-        <v>0.52141000000000004</v>
+        <v>0.55335999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="B125" s="1">
-        <v>716.07</v>
+        <v>728.67</v>
       </c>
       <c r="C125" s="1">
-        <v>642.34</v>
+        <v>700.64</v>
       </c>
       <c r="D125" s="1">
-        <v>2526.11</v>
+        <v>2368.67</v>
       </c>
       <c r="E125" s="1">
-        <v>74.59</v>
+        <v>71.33</v>
       </c>
       <c r="F125" s="1">
-        <v>63.68</v>
+        <v>55.26</v>
       </c>
       <c r="G125" s="2">
-        <v>0.56823999999999997</v>
+        <v>0.57657999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="B126" s="1">
-        <v>721.95</v>
+        <v>693.28</v>
       </c>
       <c r="C126" s="1">
-        <v>664.75</v>
+        <v>731.33</v>
       </c>
       <c r="D126" s="1">
-        <v>2457.6</v>
+        <v>2486.3200000000002</v>
       </c>
       <c r="E126" s="1">
-        <v>72.98</v>
+        <v>84.71</v>
       </c>
       <c r="F126" s="1">
-        <v>60.01</v>
+        <v>51.93</v>
       </c>
       <c r="G126" s="2">
-        <v>0.54408886999999995</v>
+        <v>0.57369000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="B127" s="1">
-        <v>697.48</v>
+        <v>716.35</v>
       </c>
       <c r="C127" s="1">
-        <v>694.64</v>
+        <v>745.51</v>
       </c>
       <c r="D127" s="1">
-        <v>2512.96</v>
+        <v>2336.2800000000002</v>
       </c>
       <c r="E127" s="1">
-        <v>81.790000000000006</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="F127" s="1">
-        <v>55.98</v>
+        <v>50.56</v>
       </c>
       <c r="G127" s="2">
-        <v>0.52329340000000002</v>
+        <v>0.68557000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1">
-        <v>723.12</v>
+        <v>732.11</v>
       </c>
       <c r="C128" s="1">
-        <v>691.56</v>
+        <v>689.56</v>
       </c>
       <c r="D128" s="1">
-        <v>2402.81</v>
+        <v>2377.92</v>
       </c>
       <c r="E128" s="1">
-        <v>72.680000000000007</v>
+        <v>70.55</v>
       </c>
       <c r="F128" s="1">
-        <v>56.36</v>
+        <v>56.61</v>
       </c>
       <c r="G128" s="2">
-        <v>0.55713690999999999</v>
+        <v>0.56027000000000005</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="B129" s="1">
-        <v>713.27</v>
+        <v>696.64</v>
       </c>
       <c r="C129" s="1">
-        <v>645.89</v>
+        <v>650.63</v>
       </c>
       <c r="D129" s="1">
-        <v>2529.04</v>
+        <v>2604.5700000000002</v>
       </c>
       <c r="E129" s="1">
-        <v>75.430000000000007</v>
+        <v>82.28</v>
       </c>
       <c r="F129" s="1">
-        <v>63.05</v>
+        <v>62.24</v>
       </c>
       <c r="G129" s="2">
-        <v>0.55862650999999997</v>
+        <v>0.52141000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="B130" s="1">
-        <v>717.47</v>
+        <v>716.07</v>
       </c>
       <c r="C130" s="1">
-        <v>694.89</v>
+        <v>642.34</v>
       </c>
       <c r="D130" s="1">
-        <v>2416.64</v>
+        <v>2526.11</v>
       </c>
       <c r="E130" s="1">
-        <v>74.19</v>
+        <v>74.59</v>
       </c>
       <c r="F130" s="1">
-        <v>55.95</v>
+        <v>63.68</v>
       </c>
       <c r="G130" s="2">
-        <v>0.55452018000000003</v>
+        <v>0.56823999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1">
-        <v>700.59</v>
+        <v>733.02</v>
       </c>
       <c r="C131" s="1">
-        <v>646.75</v>
+        <v>698.03</v>
       </c>
       <c r="D131" s="1">
-        <v>2587.08</v>
+        <v>2360.04</v>
       </c>
       <c r="E131" s="1">
-        <v>80.180000000000007</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="F131" s="1">
-        <v>62.9</v>
+        <v>55.57</v>
       </c>
       <c r="G131" s="2">
-        <v>0.54071670000000005</v>
+        <v>0.57494999999999996</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B132" s="1">
-        <v>724.51</v>
+        <v>694.92</v>
       </c>
       <c r="C132" s="1">
-        <v>717.25</v>
+        <v>704.5</v>
       </c>
       <c r="D132" s="1">
-        <v>2353.54</v>
+        <v>2515.4499999999998</v>
       </c>
       <c r="E132" s="1">
-        <v>72.33</v>
+        <v>83.41</v>
       </c>
       <c r="F132" s="1">
-        <v>53.39</v>
+        <v>54.81</v>
       </c>
       <c r="G132" s="2">
-        <v>0.60040543999999996</v>
+        <v>0.52876000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="B133" s="1">
-        <v>696.25</v>
+        <v>703.81</v>
       </c>
       <c r="C133" s="1">
-        <v>644.52</v>
+        <v>646.35</v>
       </c>
       <c r="D133" s="1">
-        <v>2620.86</v>
+        <v>2570.39</v>
       </c>
       <c r="E133" s="1">
-        <v>82.52</v>
+        <v>78.77</v>
       </c>
       <c r="F133" s="1">
-        <v>63.29</v>
+        <v>62.97</v>
       </c>
       <c r="G133" s="2">
-        <v>0.52944875999999996</v>
+        <v>0.54315999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B134" s="1">
-        <v>708.89</v>
+        <v>693.93</v>
       </c>
       <c r="C134" s="1">
-        <v>655.64</v>
+        <v>639.71</v>
       </c>
       <c r="D134" s="1">
-        <v>2526.4</v>
+        <v>2651.76</v>
       </c>
       <c r="E134" s="1">
-        <v>76.86</v>
+        <v>84.16</v>
       </c>
       <c r="F134" s="1">
-        <v>61.42</v>
+        <v>64.16</v>
       </c>
       <c r="G134" s="2">
-        <v>0.53536976999999997</v>
+        <v>0.52844000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B135" s="1">
-        <v>717.61</v>
+        <v>729.63</v>
       </c>
       <c r="C135" s="1">
-        <v>663.42</v>
+        <v>646.12</v>
       </c>
       <c r="D135" s="1">
-        <v>2475.6</v>
+        <v>2471.75</v>
       </c>
       <c r="E135" s="1">
-        <v>74.150000000000006</v>
+        <v>71.11</v>
       </c>
       <c r="F135" s="1">
-        <v>60.21</v>
+        <v>63.01</v>
       </c>
       <c r="G135" s="2">
-        <v>0.53850989000000005</v>
+        <v>0.57611999999999997</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B136" s="1">
-        <v>702.99</v>
+        <v>721.18</v>
       </c>
       <c r="C136" s="1">
-        <v>655.95</v>
+        <v>750.93</v>
       </c>
       <c r="D136" s="1">
-        <v>2554.08</v>
+        <v>2310.4299999999998</v>
       </c>
       <c r="E136" s="1">
-        <v>79.11</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="F136" s="1">
-        <v>61.37</v>
+        <v>50.06</v>
       </c>
       <c r="G136" s="2">
-        <v>0.52897077999999997</v>
+        <v>0.73290999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="B137" s="1">
-        <v>694.07</v>
+        <v>709.77</v>
       </c>
       <c r="C137" s="1">
-        <v>653.41</v>
+        <v>677.95</v>
       </c>
       <c r="D137" s="1">
-        <v>2620.2800000000002</v>
+        <v>2478.27</v>
       </c>
       <c r="E137" s="1">
-        <v>84.05</v>
+        <v>76.56</v>
       </c>
       <c r="F137" s="1">
-        <v>61.78</v>
+        <v>58.13</v>
       </c>
       <c r="G137" s="2">
-        <v>0.50367961999999999</v>
+        <v>0.52951000000000004</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="B138" s="1">
-        <v>724.35</v>
+        <v>722.07</v>
       </c>
       <c r="C138" s="1">
-        <v>724.07</v>
+        <v>702.94</v>
       </c>
       <c r="D138" s="1">
-        <v>2342.73</v>
+        <v>2386.19</v>
       </c>
       <c r="E138" s="1">
-        <v>72.37</v>
+        <v>72.95</v>
       </c>
       <c r="F138" s="1">
-        <v>52.67</v>
+        <v>54.99</v>
       </c>
       <c r="G138" s="2">
-        <v>0.61551418000000002</v>
+        <v>0.57350000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="B139" s="1">
-        <v>724.35</v>
+        <v>724.79</v>
       </c>
       <c r="C139" s="1">
-        <v>682.51</v>
+        <v>712.11</v>
       </c>
       <c r="D139" s="1">
-        <v>2415.3000000000002</v>
+        <v>2361.2800000000002</v>
       </c>
       <c r="E139" s="1">
-        <v>72.37</v>
+        <v>72.260000000000005</v>
       </c>
       <c r="F139" s="1">
-        <v>57.52</v>
+        <v>53.95</v>
       </c>
       <c r="G139" s="2">
-        <v>0.55187162999999995</v>
+        <v>0.59350000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="B140" s="1">
-        <v>732.79</v>
+        <v>731.75</v>
       </c>
       <c r="C140" s="1">
-        <v>681.22</v>
+        <v>650.15</v>
       </c>
       <c r="D140" s="1">
-        <v>2391.27</v>
+        <v>2456.48</v>
       </c>
       <c r="E140" s="1">
-        <v>70.400000000000006</v>
+        <v>70.63</v>
       </c>
       <c r="F140" s="1">
-        <v>57.69</v>
+        <v>62.32</v>
       </c>
       <c r="G140" s="2">
-        <v>0.55418290000000003</v>
+        <v>0.56679999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B141" s="1">
-        <v>711.4</v>
+        <v>724.55</v>
       </c>
       <c r="C141" s="1">
-        <v>640.74</v>
+        <v>666.57</v>
       </c>
       <c r="D141" s="1">
-        <v>2548.15</v>
+        <v>2445.25</v>
       </c>
       <c r="E141" s="1">
-        <v>76.02</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="F141" s="1">
-        <v>63.97</v>
+        <v>59.74</v>
       </c>
       <c r="G141" s="2">
-        <v>0.56788245999999998</v>
+        <v>0.54912000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B142" s="1">
-        <v>727.4</v>
+        <v>704.8</v>
       </c>
       <c r="C142" s="1">
-        <v>747.87</v>
+        <v>639.49</v>
       </c>
       <c r="D142" s="1">
-        <v>2294.64</v>
+        <v>2580.79</v>
       </c>
       <c r="E142" s="1">
-        <v>71.63</v>
+        <v>78.37</v>
       </c>
       <c r="F142" s="1">
-        <v>50.34</v>
+        <v>64.2</v>
       </c>
       <c r="G142" s="2">
-        <v>0.71425545000000001</v>
+        <v>0.56171000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="B143" s="1">
-        <v>699.33</v>
+        <v>710.82</v>
       </c>
       <c r="C143" s="1">
-        <v>652.07000000000005</v>
+        <v>691.8</v>
       </c>
       <c r="D143" s="1">
-        <v>2583.2600000000002</v>
+        <v>2448.2199999999998</v>
       </c>
       <c r="E143" s="1">
-        <v>80.8</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="F143" s="1">
-        <v>62</v>
+        <v>56.33</v>
       </c>
       <c r="G143" s="2">
-        <v>0.52802422999999998</v>
+        <v>0.54354000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B144" s="1">
-        <v>699.33</v>
+        <v>727.1</v>
       </c>
       <c r="C144" s="1">
-        <v>639.82000000000005</v>
+        <v>673.1</v>
       </c>
       <c r="D144" s="1">
-        <v>2610.31</v>
+        <v>2424.21</v>
       </c>
       <c r="E144" s="1">
-        <v>80.8</v>
+        <v>71.7</v>
       </c>
       <c r="F144" s="1">
-        <v>64.14</v>
+        <v>58.8</v>
       </c>
       <c r="G144" s="2">
-        <v>0.55072582999999997</v>
+        <v>0.54734000000000005</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="B145" s="1">
-        <v>733.52</v>
+        <v>730.33</v>
       </c>
       <c r="C145" s="1">
-        <v>702.77</v>
+        <v>642.84</v>
       </c>
       <c r="D145" s="1">
-        <v>2350.21</v>
+        <v>2476.89</v>
       </c>
       <c r="E145" s="1">
-        <v>70.239999999999995</v>
+        <v>70.95</v>
       </c>
       <c r="F145" s="1">
-        <v>55.01</v>
+        <v>63.59</v>
       </c>
       <c r="G145" s="2">
-        <v>0.58190299000000001</v>
+        <v>0.58313999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B146" s="1">
-        <v>734.54</v>
+        <v>695.06</v>
       </c>
       <c r="C146" s="1">
-        <v>675.61</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="D146" s="1">
-        <v>2396.6999999999998</v>
+        <v>2620</v>
       </c>
       <c r="E146" s="1">
-        <v>70.02</v>
+        <v>83.31</v>
       </c>
       <c r="F146" s="1">
-        <v>58.45</v>
+        <v>62.46</v>
       </c>
       <c r="G146" s="2">
-        <v>0.55081815000000001</v>
+        <v>0.51553000000000004</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="B147" s="1">
-        <v>707.45</v>
+        <v>721.57</v>
       </c>
       <c r="C147" s="1">
-        <v>717.07</v>
+        <v>652.86</v>
       </c>
       <c r="D147" s="1">
-        <v>2419.08</v>
+        <v>2483.39</v>
       </c>
       <c r="E147" s="1">
-        <v>77.37</v>
+        <v>73.08</v>
       </c>
       <c r="F147" s="1">
-        <v>53.41</v>
+        <v>61.87</v>
       </c>
       <c r="G147" s="2">
-        <v>0.57639468000000005</v>
+        <v>0.55544000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B148" s="1">
-        <v>725.65</v>
+        <v>695.01</v>
       </c>
       <c r="C148" s="1">
-        <v>654.21</v>
+        <v>666.77</v>
       </c>
       <c r="D148" s="1">
-        <v>2466.9</v>
+        <v>2584.41</v>
       </c>
       <c r="E148" s="1">
-        <v>72.05</v>
+        <v>83.35</v>
       </c>
       <c r="F148" s="1">
-        <v>61.65</v>
+        <v>59.71</v>
       </c>
       <c r="G148" s="2">
-        <v>0.56042789000000004</v>
+        <v>0.49831999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B149" s="1">
-        <v>708.26</v>
+        <v>702.27</v>
       </c>
       <c r="C149" s="1">
-        <v>736.39</v>
+        <v>726.2</v>
       </c>
       <c r="D149" s="1">
-        <v>2383.7199999999998</v>
+        <v>2429.67</v>
       </c>
       <c r="E149" s="1">
-        <v>77.08</v>
+        <v>79.42</v>
       </c>
       <c r="F149" s="1">
-        <v>51.43</v>
+        <v>52.45</v>
       </c>
       <c r="G149" s="2">
-        <v>0.63429212000000001</v>
+        <v>0.59209999999999996</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B150" s="1">
-        <v>696.51</v>
+        <v>712.53</v>
       </c>
       <c r="C150" s="1">
-        <v>676.92</v>
+        <v>675.54</v>
       </c>
       <c r="D150" s="1">
-        <v>2552.59</v>
+        <v>2471.35</v>
       </c>
       <c r="E150" s="1">
-        <v>82.36</v>
+        <v>75.66</v>
       </c>
       <c r="F150" s="1">
-        <v>58.27</v>
+        <v>58.46</v>
       </c>
       <c r="G150" s="2">
-        <v>0.50194083</v>
+        <v>0.52908999999999995</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="B151" s="1">
-        <v>700.2</v>
+        <v>719.02</v>
       </c>
       <c r="C151" s="1">
-        <v>642.16999999999996</v>
+        <v>731.83</v>
       </c>
       <c r="D151" s="1">
-        <v>2599.64</v>
+        <v>2348.34</v>
       </c>
       <c r="E151" s="1">
-        <v>80.37</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="F151" s="1">
-        <v>63.71</v>
+        <v>51.88</v>
       </c>
       <c r="G151" s="2">
-        <v>0.54870878999999995</v>
+        <v>0.63575999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="B152" s="1">
-        <v>713.66</v>
+        <v>731.44</v>
       </c>
       <c r="C152" s="1">
-        <v>663.02</v>
+        <v>656.95</v>
       </c>
       <c r="D152" s="1">
-        <v>2491.42</v>
+        <v>2443.06</v>
       </c>
       <c r="E152" s="1">
-        <v>75.31</v>
+        <v>70.7</v>
       </c>
       <c r="F152" s="1">
-        <v>60.27</v>
+        <v>61.21</v>
       </c>
       <c r="G152" s="2">
-        <v>0.53506577</v>
+        <v>0.55718999999999996</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="B153" s="1">
-        <v>703.2</v>
+        <v>715.39</v>
       </c>
       <c r="C153" s="1">
-        <v>730.53</v>
+        <v>638.21</v>
       </c>
       <c r="D153" s="1">
-        <v>2417.6</v>
+        <v>2538.15</v>
       </c>
       <c r="E153" s="1">
-        <v>79.02</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="F153" s="1">
-        <v>52.01</v>
+        <v>64.44</v>
       </c>
       <c r="G153" s="2">
-        <v>0.60671691000000005</v>
+        <v>0.57930999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="B154" s="1">
-        <v>713.76</v>
+        <v>708.83</v>
       </c>
       <c r="C154" s="1">
-        <v>643.16999999999996</v>
+        <v>686.03</v>
       </c>
       <c r="D154" s="1">
-        <v>2533.15</v>
+        <v>2467.2600000000002</v>
       </c>
       <c r="E154" s="1">
-        <v>75.28</v>
+        <v>76.88</v>
       </c>
       <c r="F154" s="1">
-        <v>63.53</v>
+        <v>57.06</v>
       </c>
       <c r="G154" s="2">
-        <v>0.56599666999999998</v>
+        <v>0.53341000000000005</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="B155" s="1">
-        <v>732.38</v>
+        <v>694.47</v>
       </c>
       <c r="C155" s="1">
-        <v>718.93</v>
+        <v>663.15</v>
       </c>
       <c r="D155" s="1">
-        <v>2326.04</v>
+        <v>2596.4</v>
       </c>
       <c r="E155" s="1">
-        <v>70.489999999999995</v>
+        <v>83.74</v>
       </c>
       <c r="F155" s="1">
-        <v>53.21</v>
+        <v>60.25</v>
       </c>
       <c r="G155" s="2">
-        <v>0.60469521000000004</v>
+        <v>0.49775000000000003</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="B156" s="1">
-        <v>715.56</v>
+        <v>699.77</v>
       </c>
       <c r="C156" s="1">
-        <v>652.79999999999995</v>
+        <v>733.64</v>
       </c>
       <c r="D156" s="1">
-        <v>2505.1799999999998</v>
+        <v>2431.9699999999998</v>
       </c>
       <c r="E156" s="1">
-        <v>74.739999999999995</v>
+        <v>80.58</v>
       </c>
       <c r="F156" s="1">
-        <v>61.88</v>
+        <v>51.7</v>
       </c>
       <c r="G156" s="2">
-        <v>0.54900592999999998</v>
+        <v>0.60689000000000004</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B157" s="1">
-        <v>731.26</v>
+        <v>730.24</v>
       </c>
       <c r="C157" s="1">
-        <v>695.87</v>
+        <v>647.79999999999995</v>
       </c>
       <c r="D157" s="1">
-        <v>2369.15</v>
+        <v>2466.1799999999998</v>
       </c>
       <c r="E157" s="1">
-        <v>70.739999999999995</v>
+        <v>70.97</v>
       </c>
       <c r="F157" s="1">
-        <v>55.83</v>
+        <v>62.72</v>
       </c>
       <c r="G157" s="2">
-        <v>0.56868989000000003</v>
+        <v>0.57316</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1">
-        <v>711.65</v>
+        <v>730.64</v>
       </c>
       <c r="C158" s="1">
-        <v>710.94</v>
+        <v>750.05</v>
       </c>
       <c r="D158" s="1">
-        <v>2411.23</v>
+        <v>2281.16</v>
       </c>
       <c r="E158" s="1">
-        <v>75.94</v>
+        <v>70.88</v>
       </c>
       <c r="F158" s="1">
-        <v>54.08</v>
+        <v>50.14</v>
       </c>
       <c r="G158" s="2">
-        <v>0.57582690000000003</v>
+        <v>0.73080999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B159" s="1">
-        <v>709.8</v>
+        <v>694.22</v>
       </c>
       <c r="C159" s="1">
-        <v>732.43</v>
+        <v>663.55</v>
       </c>
       <c r="D159" s="1">
-        <v>2383.36</v>
+        <v>2597.92</v>
       </c>
       <c r="E159" s="1">
-        <v>76.55</v>
+        <v>83.93</v>
       </c>
       <c r="F159" s="1">
-        <v>51.82</v>
+        <v>60.19</v>
       </c>
       <c r="G159" s="2">
-        <v>0.62493142999999995</v>
+        <v>0.49564999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="B160" s="1">
-        <v>696.11</v>
+        <v>720.39</v>
       </c>
       <c r="C160" s="1">
-        <v>647.33000000000004</v>
+        <v>678.83</v>
       </c>
       <c r="D160" s="1">
-        <v>2615.77</v>
+        <v>2435.64</v>
       </c>
       <c r="E160" s="1">
-        <v>82.61</v>
+        <v>73.39</v>
       </c>
       <c r="F160" s="1">
-        <v>62.8</v>
+        <v>58.01</v>
       </c>
       <c r="G160" s="2">
-        <v>0.52414958</v>
+        <v>0.54281999999999997</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="B161" s="1">
-        <v>697.78</v>
+        <v>717.12</v>
       </c>
       <c r="C161" s="1">
-        <v>728.55</v>
+        <v>717.72</v>
       </c>
       <c r="D161" s="1">
-        <v>2453.0700000000002</v>
+        <v>2378.5</v>
       </c>
       <c r="E161" s="1">
-        <v>81.62</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="F161" s="1">
-        <v>52.21</v>
+        <v>53.34</v>
       </c>
       <c r="G161" s="2">
-        <v>0.58675973999999997</v>
+        <v>0.59055000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B162" s="1">
-        <v>694.22</v>
+        <v>727.95</v>
       </c>
       <c r="C162" s="1">
-        <v>716.14</v>
+        <v>682.05</v>
       </c>
       <c r="D162" s="1">
-        <v>2501.91</v>
+        <v>2404.5500000000002</v>
       </c>
       <c r="E162" s="1">
-        <v>83.93</v>
+        <v>71.5</v>
       </c>
       <c r="F162" s="1">
-        <v>53.51</v>
+        <v>57.58</v>
       </c>
       <c r="G162" s="2">
-        <v>0.54141691000000003</v>
+        <v>0.55218999999999996</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="B163" s="1">
-        <v>695.31</v>
+        <v>721.3</v>
       </c>
       <c r="C163" s="1">
-        <v>638.74</v>
+        <v>648.85</v>
       </c>
       <c r="D163" s="1">
-        <v>2641.55</v>
+        <v>2492.91</v>
       </c>
       <c r="E163" s="1">
-        <v>83.14</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="F163" s="1">
-        <v>64.34</v>
+        <v>62.54</v>
       </c>
       <c r="G163" s="2">
-        <v>0.53681484999999995</v>
+        <v>0.56277999999999995</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="B164" s="1">
-        <v>695.6</v>
+        <v>734.08</v>
       </c>
       <c r="C164" s="1">
-        <v>674.39</v>
+        <v>750.16</v>
       </c>
       <c r="D164" s="1">
-        <v>2564.54</v>
+        <v>2270.6799999999998</v>
       </c>
       <c r="E164" s="1">
-        <v>82.94</v>
+        <v>70.12</v>
       </c>
       <c r="F164" s="1">
-        <v>58.62</v>
+        <v>50.13</v>
       </c>
       <c r="G164" s="2">
-        <v>0.49750473000000001</v>
+        <v>0.73490999999999995</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="B165" s="1">
-        <v>696.27</v>
+        <v>717.22</v>
       </c>
       <c r="C165" s="1">
-        <v>685.8</v>
+        <v>689.56</v>
       </c>
       <c r="D165" s="1">
-        <v>2537.8200000000002</v>
+        <v>2427.14</v>
       </c>
       <c r="E165" s="1">
-        <v>82.51</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="F165" s="1">
-        <v>57.09</v>
+        <v>56.61</v>
       </c>
       <c r="G165" s="2">
-        <v>0.50983144999999996</v>
+        <v>0.54749000000000003</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="B166" s="1">
-        <v>694.42</v>
+        <v>728.89</v>
       </c>
       <c r="C166" s="1">
-        <v>724.55</v>
+        <v>708.8</v>
       </c>
       <c r="D166" s="1">
-        <v>2486.08</v>
+        <v>2353.85</v>
       </c>
       <c r="E166" s="1">
-        <v>83.78</v>
+        <v>71.28</v>
       </c>
       <c r="F166" s="1">
-        <v>52.62</v>
+        <v>54.32</v>
       </c>
       <c r="G166" s="2">
-        <v>0.55772988999999995</v>
+        <v>0.58864000000000005</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B167" s="1">
-        <v>697.8</v>
+        <v>696.63</v>
       </c>
       <c r="C167" s="1">
-        <v>750.05</v>
+        <v>693.01</v>
       </c>
       <c r="D167" s="1">
-        <v>2418.66</v>
+        <v>2522.02</v>
       </c>
       <c r="E167" s="1">
-        <v>81.61</v>
+        <v>82.29</v>
       </c>
       <c r="F167" s="1">
-        <v>50.14</v>
+        <v>56.18</v>
       </c>
       <c r="G167" s="2">
-        <v>0.68403205</v>
+        <v>0.51890000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="B168" s="1">
-        <v>708.01</v>
+        <v>724.27</v>
       </c>
       <c r="C168" s="1">
-        <v>738.35</v>
+        <v>677.73</v>
       </c>
       <c r="D168" s="1">
-        <v>2381.7199999999998</v>
+        <v>2424.54</v>
       </c>
       <c r="E168" s="1">
-        <v>77.17</v>
+        <v>72.39</v>
       </c>
       <c r="F168" s="1">
-        <v>51.24</v>
+        <v>58.16</v>
       </c>
       <c r="G168" s="2">
-        <v>0.64274224000000002</v>
+        <v>0.54923</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="B169" s="1">
-        <v>702.59</v>
+        <v>718.19</v>
       </c>
       <c r="C169" s="1">
-        <v>708.27</v>
+        <v>697.95</v>
       </c>
       <c r="D169" s="1">
-        <v>2458.0100000000002</v>
+        <v>2408.6</v>
       </c>
       <c r="E169" s="1">
-        <v>79.28</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="F169" s="1">
-        <v>54.38</v>
+        <v>55.58</v>
       </c>
       <c r="G169" s="2">
-        <v>0.55900671999999996</v>
+        <v>0.56189999999999996</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="B170" s="1">
-        <v>693.75</v>
+        <v>707.59</v>
       </c>
       <c r="C170" s="1">
-        <v>670.08</v>
+        <v>674.89</v>
       </c>
       <c r="D170" s="1">
-        <v>2589.61</v>
+        <v>2493.75</v>
       </c>
       <c r="E170" s="1">
-        <v>84.31</v>
+        <v>77.319999999999993</v>
       </c>
       <c r="F170" s="1">
-        <v>59.23</v>
+        <v>58.55</v>
       </c>
       <c r="G170" s="2">
-        <v>0.48851489999999997</v>
+        <v>0.52224999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="B171" s="1">
-        <v>708.89</v>
+        <v>694.56</v>
       </c>
       <c r="C171" s="1">
-        <v>663.68</v>
+        <v>732.74</v>
       </c>
       <c r="D171" s="1">
-        <v>2509.91</v>
+        <v>2471.39</v>
       </c>
       <c r="E171" s="1">
-        <v>76.86</v>
+        <v>83.67</v>
       </c>
       <c r="F171" s="1">
-        <v>60.17</v>
+        <v>51.79</v>
       </c>
       <c r="G171" s="2">
-        <v>0.52842676</v>
+        <v>0.58450000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B172" s="1">
-        <v>697.48</v>
+        <v>705.16</v>
       </c>
       <c r="C172" s="1">
-        <v>733.75</v>
+        <v>643.16999999999996</v>
       </c>
       <c r="D172" s="1">
-        <v>2446.73</v>
+        <v>2570.67</v>
       </c>
       <c r="E172" s="1">
-        <v>81.790000000000006</v>
+        <v>78.23</v>
       </c>
       <c r="F172" s="1">
-        <v>51.69</v>
+        <v>63.53</v>
       </c>
       <c r="G172" s="2">
-        <v>0.60085142000000002</v>
+        <v>0.55288000000000004</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B173" s="1">
+        <v>692.97</v>
+      </c>
+      <c r="C173" s="1">
+        <v>642.78</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2655</v>
+      </c>
+      <c r="E173" s="1">
+        <v>85</v>
+      </c>
+      <c r="F173" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.51422999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>71</v>
+      </c>
+      <c r="B174" s="1">
+        <v>695.59</v>
+      </c>
+      <c r="C174" s="1">
+        <v>659.37</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2594.44</v>
+      </c>
+      <c r="E174" s="1">
+        <v>82.95</v>
+      </c>
+      <c r="F174" s="1">
+        <v>60.83</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0.50519000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>72</v>
+      </c>
+      <c r="B175" s="1">
+        <v>710.21</v>
+      </c>
+      <c r="C175" s="1">
+        <v>707.73</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2422.73</v>
+      </c>
+      <c r="E175" s="1">
+        <v>76.41</v>
+      </c>
+      <c r="F175" s="1">
+        <v>54.44</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0.56867000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>73</v>
+      </c>
+      <c r="B176" s="1">
+        <v>715.36</v>
+      </c>
+      <c r="C176" s="1">
+        <v>703.03</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2410.19</v>
+      </c>
+      <c r="E176" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="F176" s="1">
+        <v>54.98</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0.56725999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>74</v>
+      </c>
+      <c r="B177" s="1">
+        <v>702.9</v>
+      </c>
+      <c r="C177" s="1">
+        <v>663.62</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2538.88</v>
+      </c>
+      <c r="E177" s="1">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="F177" s="1">
+        <v>60.18</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0.52083000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>75</v>
+      </c>
+      <c r="B178" s="1">
+        <v>702.75</v>
+      </c>
+      <c r="C178" s="1">
+        <v>671.9</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2523.2800000000002</v>
+      </c>
+      <c r="E178" s="1">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="F178" s="1">
+        <v>58.97</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0.51732999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>76</v>
+      </c>
+      <c r="B179" s="1">
+        <v>693.01</v>
+      </c>
+      <c r="C179" s="1">
+        <v>735.47</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2482.67</v>
+      </c>
+      <c r="E179" s="1">
+        <v>84.96</v>
+      </c>
+      <c r="F179" s="1">
+        <v>51.52</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.58528000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>77</v>
+      </c>
+      <c r="B180" s="1">
+        <v>694.63</v>
+      </c>
+      <c r="C180" s="1">
+        <v>652.07000000000005</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2617.88</v>
+      </c>
+      <c r="E180" s="1">
+        <v>83.62</v>
+      </c>
+      <c r="F180" s="1">
+        <v>62</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0.50800999999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>78</v>
+      </c>
+      <c r="B181" s="1">
+        <v>723.71</v>
+      </c>
+      <c r="C181" s="1">
+        <v>652.99</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2475.87</v>
+      </c>
+      <c r="E181" s="1">
+        <v>72.53</v>
+      </c>
+      <c r="F181" s="1">
+        <v>61.85</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0.56015000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>79</v>
+      </c>
+      <c r="B182" s="1">
+        <v>721.87</v>
+      </c>
+      <c r="C182" s="1">
+        <v>723.78</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2351.54</v>
+      </c>
+      <c r="E182" s="1">
+        <v>73</v>
+      </c>
+      <c r="F182" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0.61202000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>80</v>
+      </c>
+      <c r="B183" s="1">
+        <v>713.76</v>
+      </c>
+      <c r="C183" s="1">
+        <v>672.46</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2472.38</v>
+      </c>
+      <c r="E183" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="F183" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.53124000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>81</v>
+      </c>
+      <c r="B184" s="1">
+        <v>693.42</v>
+      </c>
+      <c r="C184" s="1">
+        <v>684.11</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2566.34</v>
+      </c>
+      <c r="E184" s="1">
+        <v>84.59</v>
+      </c>
+      <c r="F184" s="1">
+        <v>57.31</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0.49193999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>82</v>
+      </c>
+      <c r="B185" s="1">
+        <v>724.35</v>
+      </c>
+      <c r="C185" s="1">
+        <v>707.03</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2371.44</v>
+      </c>
+      <c r="E185" s="1">
+        <v>72.37</v>
+      </c>
+      <c r="F185" s="1">
+        <v>54.52</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0.58552999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>83</v>
+      </c>
+      <c r="B186" s="1">
+        <v>703.18</v>
+      </c>
+      <c r="C186" s="1">
+        <v>700.89</v>
+      </c>
+      <c r="D186" s="1">
+        <v>2467.6799999999998</v>
+      </c>
+      <c r="E186" s="1">
+        <v>79.03</v>
+      </c>
+      <c r="F186" s="1">
+        <v>55.23</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0.54766999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>84</v>
+      </c>
+      <c r="B187" s="1">
+        <v>716.77</v>
+      </c>
+      <c r="C187" s="1">
+        <v>637.83000000000004</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2533.83</v>
+      </c>
+      <c r="E187" s="1">
+        <v>74.39</v>
+      </c>
+      <c r="F187" s="1">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0.58187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>85</v>
+      </c>
+      <c r="B188" s="1">
+        <v>701.75</v>
+      </c>
+      <c r="C188" s="1">
+        <v>641.95000000000005</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2591.19</v>
+      </c>
+      <c r="E188" s="1">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="F188" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0.55201999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>86</v>
+      </c>
+      <c r="B189" s="1">
+        <v>705.16</v>
+      </c>
+      <c r="C189" s="1">
+        <v>709.69</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2442.42</v>
+      </c>
+      <c r="E189" s="1">
+        <v>78.23</v>
+      </c>
+      <c r="F189" s="1">
+        <v>54.22</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0.56450999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>87</v>
+      </c>
+      <c r="B190" s="1">
+        <v>699.73</v>
+      </c>
+      <c r="C190" s="1">
+        <v>643.34</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2599.85</v>
+      </c>
+      <c r="E190" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F190" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0.54491999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>88</v>
+      </c>
+      <c r="B191" s="1">
+        <v>719.94</v>
+      </c>
+      <c r="C191" s="1">
+        <v>636.57000000000005</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2525.3000000000002</v>
+      </c>
+      <c r="E191" s="1">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="F191" s="1">
+        <v>64.75</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0.59052000000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>89</v>
+      </c>
+      <c r="B192" s="1">
+        <v>710.55</v>
+      </c>
+      <c r="C192" s="1">
+        <v>738.76</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2370</v>
+      </c>
+      <c r="E192" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="F192" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0.64924000000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>90</v>
+      </c>
+      <c r="B193" s="1">
+        <v>696.1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>676.27</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2557.0300000000002</v>
+      </c>
+      <c r="E193" s="1">
+        <v>82.62</v>
+      </c>
+      <c r="F193" s="1">
+        <v>58.36</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0.50087000000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>91</v>
+      </c>
+      <c r="B194" s="1">
+        <v>693.52</v>
+      </c>
+      <c r="C194" s="1">
+        <v>687.05</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2559.83</v>
+      </c>
+      <c r="E194" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="F194" s="1">
+        <v>56.93</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0.49445</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>92</v>
+      </c>
+      <c r="B195" s="1">
+        <v>703.3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>693.99</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2479.29</v>
+      </c>
+      <c r="E195" s="1">
+        <v>78.98</v>
+      </c>
+      <c r="F195" s="1">
+        <v>56.06</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0.53632000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>93</v>
+      </c>
+      <c r="B196" s="1">
+        <v>694.62</v>
+      </c>
+      <c r="C196" s="1">
+        <v>726.88</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2480.42</v>
+      </c>
+      <c r="E196" s="1">
+        <v>83.63</v>
+      </c>
+      <c r="F196" s="1">
+        <v>52.38</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0.56630999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>94</v>
+      </c>
+      <c r="B197" s="1">
+        <v>710.27</v>
+      </c>
+      <c r="C197" s="1">
+        <v>645.95000000000005</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2541.21</v>
+      </c>
+      <c r="E197" s="1">
+        <v>76.39</v>
+      </c>
+      <c r="F197" s="1">
+        <v>63.04</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0.55456000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>95</v>
+      </c>
+      <c r="B198" s="1">
+        <v>694.09</v>
+      </c>
+      <c r="C198" s="1">
+        <v>748.85</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2450.16</v>
+      </c>
+      <c r="E198" s="1">
+        <v>84.03</v>
+      </c>
+      <c r="F198" s="1">
+        <v>50.25</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0.66296999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>96</v>
+      </c>
+      <c r="B199" s="1">
+        <v>729.67</v>
+      </c>
+      <c r="C199" s="1">
+        <v>686.89</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2390.23</v>
+      </c>
+      <c r="E199" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F199" s="1">
+        <v>56.95</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0.55894999999999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>97</v>
+      </c>
+      <c r="B200" s="1">
+        <v>696.83</v>
+      </c>
+      <c r="C200" s="1">
+        <v>745.29</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2433</v>
+      </c>
+      <c r="E200" s="1">
+        <v>82.17</v>
+      </c>
+      <c r="F200" s="1">
+        <v>50.58</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0.64344999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>98</v>
+      </c>
+      <c r="B201" s="1">
+        <v>714.42</v>
+      </c>
+      <c r="C201" s="1">
+        <v>679.65</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2456.09</v>
+      </c>
+      <c r="E201" s="1">
+        <v>75.08</v>
+      </c>
+      <c r="F201" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0.53661000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>301</v>
+      </c>
+      <c r="B202" s="1">
+        <v>721.95</v>
+      </c>
+      <c r="C202" s="1">
+        <v>664.75</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2457.6</v>
+      </c>
+      <c r="E202" s="1">
+        <v>72.98</v>
+      </c>
+      <c r="F202" s="1">
+        <v>60.01</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0.54408886999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>302</v>
+      </c>
+      <c r="B203" s="1">
+        <v>697.48</v>
+      </c>
+      <c r="C203" s="1">
+        <v>694.64</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2512.96</v>
+      </c>
+      <c r="E203" s="1">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="F203" s="1">
+        <v>55.98</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0.52329340000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>303</v>
+      </c>
+      <c r="B204" s="1">
+        <v>723.12</v>
+      </c>
+      <c r="C204" s="1">
+        <v>691.56</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2402.81</v>
+      </c>
+      <c r="E204" s="1">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="F204" s="1">
+        <v>56.36</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0.55713690999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>304</v>
+      </c>
+      <c r="B205" s="1">
+        <v>713.27</v>
+      </c>
+      <c r="C205" s="1">
+        <v>645.89</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2529.04</v>
+      </c>
+      <c r="E205" s="1">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="F205" s="1">
+        <v>63.05</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0.55862650999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>305</v>
+      </c>
+      <c r="B206" s="1">
+        <v>717.47</v>
+      </c>
+      <c r="C206" s="1">
+        <v>694.89</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2416.64</v>
+      </c>
+      <c r="E206" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="F206" s="1">
+        <v>55.95</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0.55452018000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>306</v>
+      </c>
+      <c r="B207" s="1">
+        <v>700.59</v>
+      </c>
+      <c r="C207" s="1">
+        <v>646.75</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2587.08</v>
+      </c>
+      <c r="E207" s="1">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="F207" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0.54071670000000005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>307</v>
+      </c>
+      <c r="B208" s="1">
+        <v>725.94</v>
+      </c>
+      <c r="C208" s="1">
+        <v>669.24</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2435.4499999999998</v>
+      </c>
+      <c r="E208" s="1">
+        <v>71.98</v>
+      </c>
+      <c r="F208" s="1">
+        <v>59.35</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0.54900541999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>308</v>
+      </c>
+      <c r="B209" s="1">
+        <v>728.72</v>
+      </c>
+      <c r="C209" s="1">
+        <v>651.47</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2462.96</v>
+      </c>
+      <c r="E209" s="1">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="F209" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0.56491857000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>309</v>
+      </c>
+      <c r="B210" s="1">
+        <v>720.88</v>
+      </c>
+      <c r="C210" s="1">
+        <v>734.05</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2338.21</v>
+      </c>
+      <c r="E210" s="1">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="F210" s="1">
+        <v>51.66</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0.64622153000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>310</v>
+      </c>
+      <c r="B211" s="1">
+        <v>695.6</v>
+      </c>
+      <c r="C211" s="1">
+        <v>670.08</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2572.89</v>
+      </c>
+      <c r="E211" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="F211" s="1">
+        <v>59.23</v>
+      </c>
+      <c r="G211" s="2">
+        <v>0.4983089</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>311</v>
+      </c>
+      <c r="B212" s="1">
+        <v>716.38</v>
+      </c>
+      <c r="C212" s="1">
+        <v>744.76</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2337.33</v>
+      </c>
+      <c r="E212" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="F212" s="1">
+        <v>50.63</v>
+      </c>
+      <c r="G212" s="2">
+        <v>0.68147820999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>312</v>
+      </c>
+      <c r="B213" s="1">
+        <v>699.07</v>
+      </c>
+      <c r="C213" s="1">
+        <v>714.12</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2468.5300000000002</v>
+      </c>
+      <c r="E213" s="1">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="F213" s="1">
+        <v>53.73</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0.56141149999999995</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>313</v>
+      </c>
+      <c r="B214" s="1">
+        <v>710.91</v>
+      </c>
+      <c r="C214" s="1">
+        <v>668.35</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2491.9699999999998</v>
+      </c>
+      <c r="E214" s="1">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="F214" s="1">
+        <v>59.48</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0.52993456999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>314</v>
+      </c>
+      <c r="B215" s="1">
+        <v>705.21</v>
+      </c>
+      <c r="C215" s="1">
+        <v>713.39</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2435.87</v>
+      </c>
+      <c r="E215" s="1">
+        <v>78.209999999999994</v>
+      </c>
+      <c r="F215" s="1">
+        <v>53.81</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0.56999842999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>315</v>
+      </c>
+      <c r="B216" s="1">
+        <v>696.94</v>
+      </c>
+      <c r="C216" s="1">
+        <v>694.64</v>
+      </c>
+      <c r="D216" s="1">
+        <v>2516.77</v>
+      </c>
+      <c r="E216" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>55.98</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0.52223160000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>316</v>
+      </c>
+      <c r="B217" s="1">
+        <v>717.86</v>
+      </c>
+      <c r="C217" s="1">
+        <v>653.35</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2495.4499999999998</v>
+      </c>
+      <c r="E217" s="1">
+        <v>74.08</v>
+      </c>
+      <c r="F217" s="1">
+        <v>61.79</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0.54989529999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>317</v>
+      </c>
+      <c r="B218" s="1">
+        <v>720.99</v>
+      </c>
+      <c r="C218" s="1">
+        <v>652.86</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2485.36</v>
+      </c>
+      <c r="E218" s="1">
+        <v>73.23</v>
+      </c>
+      <c r="F218" s="1">
+        <v>61.87</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0.55616604000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>318</v>
+      </c>
+      <c r="B219" s="1">
+        <v>714.25</v>
+      </c>
+      <c r="C219" s="1">
+        <v>665.96</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2483.21</v>
+      </c>
+      <c r="E219" s="1">
+        <v>75.13</v>
+      </c>
+      <c r="F219" s="1">
+        <v>59.83</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0.53434475000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>319</v>
+      </c>
+      <c r="B220" s="1">
+        <v>693.48</v>
+      </c>
+      <c r="C220" s="1">
+        <v>673.89</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2585.0100000000002</v>
+      </c>
+      <c r="E220" s="1">
+        <v>84.54</v>
+      </c>
+      <c r="F220" s="1">
+        <v>58.69</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0.48445619000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>320</v>
+      </c>
+      <c r="B221" s="1">
+        <v>725.04</v>
+      </c>
+      <c r="C221" s="1">
+        <v>641.45000000000005</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2496.75</v>
+      </c>
+      <c r="E221" s="1">
+        <v>72.2</v>
+      </c>
+      <c r="F221" s="1">
+        <v>63.84</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0.58430820000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>321</v>
+      </c>
+      <c r="B222" s="1">
+        <v>729.32</v>
+      </c>
+      <c r="C222" s="1">
+        <v>650.75</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2462.62</v>
+      </c>
+      <c r="E222" s="1">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="F222" s="1">
+        <v>62.22</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0.56724662000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>322</v>
+      </c>
+      <c r="B223" s="1">
+        <v>708.8</v>
+      </c>
+      <c r="C223" s="1">
+        <v>716.51</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2413.9299999999998</v>
+      </c>
+      <c r="E223" s="1">
+        <v>76.89</v>
+      </c>
+      <c r="F223" s="1">
+        <v>53.47</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0.57616836000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>323</v>
+      </c>
+      <c r="B224" s="1">
+        <v>718.29</v>
+      </c>
+      <c r="C224" s="1">
+        <v>684.18</v>
+      </c>
+      <c r="D224" s="1">
+        <v>2433.1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F224" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0.54391279999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>324</v>
+      </c>
+      <c r="B225" s="1">
+        <v>718.91</v>
+      </c>
+      <c r="C225" s="1">
+        <v>668.14</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2461.5</v>
+      </c>
+      <c r="E225" s="1">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="F225" s="1">
+        <v>59.51</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0.53946691999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>325</v>
+      </c>
+      <c r="B226" s="1">
+        <v>695.34</v>
+      </c>
+      <c r="C226" s="1">
+        <v>732.03</v>
+      </c>
+      <c r="D226" s="1">
+        <v>2465.81</v>
+      </c>
+      <c r="E226" s="1">
+        <v>83.12</v>
+      </c>
+      <c r="F226" s="1">
+        <v>51.86</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0.58578536000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>326</v>
+      </c>
+      <c r="B227" s="1">
+        <v>719.39</v>
+      </c>
+      <c r="C227" s="1">
+        <v>676.85</v>
+      </c>
+      <c r="D227" s="1">
+        <v>2442.94</v>
+      </c>
+      <c r="E227" s="1">
+        <v>73.66</v>
+      </c>
+      <c r="F227" s="1">
+        <v>58.28</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0.54026006000000004</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>327</v>
+      </c>
+      <c r="B228" s="1">
+        <v>699.71</v>
+      </c>
+      <c r="C228" s="1">
+        <v>724.65</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2447</v>
+      </c>
+      <c r="E228" s="1">
+        <v>80.61</v>
+      </c>
+      <c r="F228" s="1">
+        <v>52.61</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0.58311866000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>328</v>
+      </c>
+      <c r="B229" s="1">
+        <v>701.22</v>
+      </c>
+      <c r="C229" s="1">
+        <v>720.25</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2445.35</v>
+      </c>
+      <c r="E229" s="1">
+        <v>79.89</v>
+      </c>
+      <c r="F229" s="1">
+        <v>53.07</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0.57598011999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>329</v>
+      </c>
+      <c r="B230" s="1">
+        <v>696.3</v>
+      </c>
+      <c r="C230" s="1">
+        <v>735.37</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2452.71</v>
+      </c>
+      <c r="E230" s="1">
+        <v>82.49</v>
+      </c>
+      <c r="F230" s="1">
+        <v>51.53</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0.60043356999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>330</v>
+      </c>
+      <c r="B231" s="1">
+        <v>697.32</v>
+      </c>
+      <c r="C231" s="1">
+        <v>646</v>
+      </c>
+      <c r="D231" s="1">
+        <v>2609.7199999999998</v>
+      </c>
+      <c r="E231" s="1">
+        <v>81.88</v>
+      </c>
+      <c r="F231" s="1">
+        <v>63.03</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0.53151528000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>331</v>
+      </c>
+      <c r="B232" s="1">
+        <v>705.7</v>
+      </c>
+      <c r="C232" s="1">
+        <v>671.76</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2508.63</v>
+      </c>
+      <c r="E232" s="1">
+        <v>78.02</v>
+      </c>
+      <c r="F232" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0.51944544999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>332</v>
+      </c>
+      <c r="B233" s="1">
+        <v>719.61</v>
+      </c>
+      <c r="C233" s="1">
+        <v>666.3</v>
+      </c>
+      <c r="D233" s="1">
+        <v>2462.66</v>
+      </c>
+      <c r="E233" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F233" s="1">
+        <v>59.78</v>
+      </c>
+      <c r="G233" s="2">
+        <v>0.54206498000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>333</v>
+      </c>
+      <c r="B234" s="1">
+        <v>693.37</v>
+      </c>
+      <c r="C234" s="1">
+        <v>735.78</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2478.17</v>
+      </c>
+      <c r="E234" s="1">
+        <v>84.63</v>
+      </c>
+      <c r="F234" s="1">
+        <v>51.49</v>
+      </c>
+      <c r="G234" s="2">
+        <v>0.58904486</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>334</v>
+      </c>
+      <c r="B235" s="1">
+        <v>697.83</v>
+      </c>
+      <c r="C235" s="1">
+        <v>715.58</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2474.19</v>
+      </c>
+      <c r="E235" s="1">
+        <v>81.59</v>
+      </c>
+      <c r="F235" s="1">
+        <v>53.57</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0.55675916000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>335</v>
+      </c>
+      <c r="B236" s="1">
+        <v>701.39</v>
+      </c>
+      <c r="C236" s="1">
+        <v>718.65</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2447.02</v>
+      </c>
+      <c r="E236" s="1">
+        <v>79.81</v>
+      </c>
+      <c r="F236" s="1">
+        <v>53.24</v>
+      </c>
+      <c r="G236" s="2">
+        <v>0.57228120000000005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>336</v>
+      </c>
+      <c r="B237" s="1">
+        <v>698.55</v>
+      </c>
+      <c r="C237" s="1">
+        <v>668.55</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2554.5100000000002</v>
+      </c>
+      <c r="E237" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="F237" s="1">
+        <v>59.45</v>
+      </c>
+      <c r="G237" s="2">
+        <v>0.51017555000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>337</v>
+      </c>
+      <c r="B238" s="1">
+        <v>719.5</v>
+      </c>
+      <c r="C238" s="1">
+        <v>665.02</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2465.6</v>
+      </c>
+      <c r="E238" s="1">
+        <v>73.63</v>
+      </c>
+      <c r="F238" s="1">
+        <v>59.97</v>
+      </c>
+      <c r="G238" s="2">
+        <v>0.54274398999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>338</v>
+      </c>
+      <c r="B239" s="1">
+        <v>716.28</v>
+      </c>
+      <c r="C239" s="1">
+        <v>725.91</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2368.0300000000002</v>
+      </c>
+      <c r="E239" s="1">
+        <v>74.53</v>
+      </c>
+      <c r="F239" s="1">
+        <v>52.48</v>
+      </c>
+      <c r="G239" s="2">
+        <v>0.61170119000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>339</v>
+      </c>
+      <c r="B240" s="1">
+        <v>697.53</v>
+      </c>
+      <c r="C240" s="1">
+        <v>703.29</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2497.33</v>
+      </c>
+      <c r="E240" s="1">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="F240" s="1">
+        <v>54.95</v>
+      </c>
+      <c r="G240" s="2">
+        <v>0.53795150000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>340</v>
+      </c>
+      <c r="B241" s="1">
+        <v>733.15</v>
+      </c>
+      <c r="C241" s="1">
+        <v>721.39</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2319.65</v>
+      </c>
+      <c r="E241" s="1">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="F241" s="1">
+        <v>52.95</v>
+      </c>
+      <c r="G241" s="2">
+        <v>0.61333413999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>341</v>
+      </c>
+      <c r="B242" s="1">
+        <v>726.1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>724.45</v>
+      </c>
+      <c r="D242" s="1">
+        <v>2336.38</v>
+      </c>
+      <c r="E242" s="1">
+        <v>71.94</v>
+      </c>
+      <c r="F242" s="1">
+        <v>52.63</v>
+      </c>
+      <c r="G242" s="2">
+        <v>0.61860965999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>342</v>
+      </c>
+      <c r="B243" s="1">
+        <v>701.79</v>
+      </c>
+      <c r="C243" s="1">
+        <v>683.34</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2506.81</v>
+      </c>
+      <c r="E243" s="1">
+        <v>79.63</v>
+      </c>
+      <c r="F243" s="1">
+        <v>57.41</v>
+      </c>
+      <c r="G243" s="2">
+        <v>0.52354228999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>343</v>
+      </c>
+      <c r="B244" s="1">
+        <v>699.67</v>
+      </c>
+      <c r="C244" s="1">
+        <v>706.06</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2478.5700000000002</v>
+      </c>
+      <c r="E244" s="1">
+        <v>80.63</v>
+      </c>
+      <c r="F244" s="1">
+        <v>54.63</v>
+      </c>
+      <c r="G244" s="2">
+        <v>0.54848545000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>344</v>
+      </c>
+      <c r="B245" s="1">
+        <v>724.88</v>
+      </c>
+      <c r="C245" s="1">
+        <v>736.91</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2320.14</v>
+      </c>
+      <c r="E245" s="1">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="F245" s="1">
+        <v>51.38</v>
+      </c>
+      <c r="G245" s="2">
+        <v>0.65902156000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>345</v>
+      </c>
+      <c r="B246" s="1">
+        <v>732.34</v>
+      </c>
+      <c r="C246" s="1">
+        <v>713.02</v>
+      </c>
+      <c r="D246" s="1">
+        <v>2336.12</v>
+      </c>
+      <c r="E246" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="F246" s="1">
+        <v>53.85</v>
+      </c>
+      <c r="G246" s="2">
+        <v>0.59735004000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>346</v>
+      </c>
+      <c r="B247" s="1">
+        <v>710.27</v>
+      </c>
+      <c r="C247" s="1">
+        <v>661.18</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2508.98</v>
+      </c>
+      <c r="E247" s="1">
+        <v>76.39</v>
+      </c>
+      <c r="F247" s="1">
+        <v>60.55</v>
+      </c>
+      <c r="G247" s="2">
+        <v>0.53256281000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>347</v>
+      </c>
+      <c r="B248" s="1">
+        <v>716.35</v>
+      </c>
+      <c r="C248" s="1">
+        <v>651.65</v>
+      </c>
+      <c r="D248" s="1">
+        <v>2504.65</v>
+      </c>
+      <c r="E248" s="1">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="F248" s="1">
+        <v>62.07</v>
+      </c>
+      <c r="G248" s="2">
+        <v>0.55036956000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>348</v>
+      </c>
+      <c r="B249" s="1">
+        <v>702.27</v>
+      </c>
+      <c r="C249" s="1">
+        <v>664.08</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2541.3200000000002</v>
+      </c>
+      <c r="E249" s="1">
+        <v>79.42</v>
+      </c>
+      <c r="F249" s="1">
+        <v>60.11</v>
+      </c>
+      <c r="G249" s="2">
+        <v>0.52017197000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>349</v>
+      </c>
+      <c r="B250" s="1">
+        <v>712.31</v>
+      </c>
+      <c r="C250" s="1">
+        <v>698.87</v>
+      </c>
+      <c r="D250" s="1">
+        <v>2429.4699999999998</v>
+      </c>
+      <c r="E250" s="1">
+        <v>75.73</v>
+      </c>
+      <c r="F250" s="1">
+        <v>55.47</v>
+      </c>
+      <c r="G250" s="2">
+        <v>0.55713137000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>350</v>
+      </c>
+      <c r="B251" s="1">
+        <v>707.12</v>
+      </c>
+      <c r="C251" s="1">
+        <v>745.08</v>
+      </c>
+      <c r="D251" s="1">
+        <v>2375.1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="F251" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="G251" s="2">
+        <v>0.66834828999999996</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>351</v>
+      </c>
+      <c r="B252" s="1">
+        <v>702.29</v>
+      </c>
+      <c r="C252" s="1">
+        <v>674.53</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2520.69</v>
+      </c>
+      <c r="E252" s="1">
+        <v>79.41</v>
+      </c>
+      <c r="F252" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="G252" s="2">
+        <v>0.51778999000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>352</v>
+      </c>
+      <c r="B253" s="1">
+        <v>715.02</v>
+      </c>
+      <c r="C253" s="1">
+        <v>717.81</v>
+      </c>
+      <c r="D253" s="1">
+        <v>2386.25</v>
+      </c>
+      <c r="E253" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F253" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="G253" s="2">
+        <v>0.58994035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>353</v>
+      </c>
+      <c r="B254" s="1">
+        <v>697.91</v>
+      </c>
+      <c r="C254" s="1">
+        <v>648.03</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2601.2199999999998</v>
+      </c>
+      <c r="E254" s="1">
+        <v>81.55</v>
+      </c>
+      <c r="F254" s="1">
+        <v>62.68</v>
+      </c>
+      <c r="G254" s="2">
+        <v>0.5301766</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>354</v>
+      </c>
+      <c r="B255" s="1">
+        <v>709.01</v>
+      </c>
+      <c r="C255" s="1">
+        <v>739.8</v>
+      </c>
+      <c r="D255" s="1">
+        <v>2374.96</v>
+      </c>
+      <c r="E255" s="1">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="F255" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="G255" s="2">
+        <v>0.65025102000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>355</v>
+      </c>
+      <c r="B256" s="1">
+        <v>695.97</v>
+      </c>
+      <c r="C256" s="1">
+        <v>714.94</v>
+      </c>
+      <c r="D256" s="1">
+        <v>2488.9</v>
+      </c>
+      <c r="E256" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="F256" s="1">
+        <v>53.64</v>
+      </c>
+      <c r="G256" s="2">
+        <v>0.54969053999999995</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>356</v>
+      </c>
+      <c r="B257" s="1">
+        <v>729.15</v>
+      </c>
+      <c r="C257" s="1">
+        <v>731.93</v>
+      </c>
+      <c r="D257" s="1">
+        <v>2314.5300000000002</v>
+      </c>
+      <c r="E257" s="1">
+        <v>71.22</v>
+      </c>
+      <c r="F257" s="1">
+        <v>51.87</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0.64454681000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>357</v>
+      </c>
+      <c r="B258" s="1">
+        <v>703.2</v>
+      </c>
+      <c r="C258" s="1">
+        <v>702.09</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2465.46</v>
+      </c>
+      <c r="E258" s="1">
+        <v>79.02</v>
+      </c>
+      <c r="F258" s="1">
+        <v>55.09</v>
+      </c>
+      <c r="G258" s="2">
+        <v>0.54932840999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>358</v>
+      </c>
+      <c r="B259" s="1">
+        <v>698.94</v>
+      </c>
+      <c r="C259" s="1">
+        <v>733.64</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2437.16</v>
+      </c>
+      <c r="E259" s="1">
+        <v>81</v>
+      </c>
+      <c r="F259" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="G259" s="2">
+        <v>0.60404891000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>359</v>
+      </c>
+      <c r="B260" s="1">
+        <v>709.95</v>
+      </c>
+      <c r="C260" s="1">
+        <v>724.26</v>
+      </c>
+      <c r="D260" s="1">
+        <v>2396.0700000000002</v>
+      </c>
+      <c r="E260" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="F260" s="1">
+        <v>52.65</v>
+      </c>
+      <c r="G260" s="2">
+        <v>0.60077793999999995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>360</v>
+      </c>
+      <c r="B261" s="1">
+        <v>715.49</v>
+      </c>
+      <c r="C261" s="1">
+        <v>750.82</v>
+      </c>
+      <c r="D261" s="1">
+        <v>2331.21</v>
+      </c>
+      <c r="E261" s="1">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="F261" s="1">
+        <v>50.07</v>
+      </c>
+      <c r="G261" s="2">
+        <v>0.72330287000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>361</v>
+      </c>
+      <c r="B262" s="1">
+        <v>704.55</v>
+      </c>
+      <c r="C262" s="1">
+        <v>717.25</v>
+      </c>
+      <c r="D262" s="1">
+        <v>2432.63</v>
+      </c>
+      <c r="E262" s="1">
+        <v>78.47</v>
+      </c>
+      <c r="F262" s="1">
+        <v>53.39</v>
+      </c>
+      <c r="G262" s="2">
+        <v>0.57339337999999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>362</v>
+      </c>
+      <c r="B263" s="1">
+        <v>728.55</v>
+      </c>
+      <c r="C263" s="1">
+        <v>661.31</v>
+      </c>
+      <c r="D263" s="1">
+        <v>2442.9899999999998</v>
+      </c>
+      <c r="E263" s="1">
+        <v>71.36</v>
+      </c>
+      <c r="F263" s="1">
+        <v>60.53</v>
+      </c>
+      <c r="G263" s="2">
+        <v>0.55357086</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>363</v>
+      </c>
+      <c r="B264" s="1">
+        <v>704.9</v>
+      </c>
+      <c r="C264" s="1">
+        <v>663.95</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2527.94</v>
+      </c>
+      <c r="E264" s="1">
+        <v>78.33</v>
+      </c>
+      <c r="F264" s="1">
+        <v>60.13</v>
+      </c>
+      <c r="G264" s="2">
+        <v>0.52231011999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>364</v>
+      </c>
+      <c r="B265" s="1">
+        <v>724.75</v>
+      </c>
+      <c r="C265" s="1">
+        <v>644.98</v>
+      </c>
+      <c r="D265" s="1">
+        <v>2489.7800000000002</v>
+      </c>
+      <c r="E265" s="1">
+        <v>72.27</v>
+      </c>
+      <c r="F265" s="1">
+        <v>63.21</v>
+      </c>
+      <c r="G265" s="2">
+        <v>0.57583435000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>365</v>
+      </c>
+      <c r="B266" s="1">
+        <v>715.7</v>
+      </c>
+      <c r="C266" s="1">
+        <v>644.80999999999995</v>
+      </c>
+      <c r="D266" s="1">
+        <v>2522.02</v>
+      </c>
+      <c r="E266" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="F266" s="1">
+        <v>63.24</v>
+      </c>
+      <c r="G266" s="2">
+        <v>0.56263284000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>366</v>
+      </c>
+      <c r="B267" s="1">
+        <v>715.42</v>
+      </c>
+      <c r="C267" s="1">
+        <v>678.46</v>
+      </c>
+      <c r="D267" s="1">
+        <v>2454.4499999999998</v>
+      </c>
+      <c r="E267" s="1">
+        <v>74.78</v>
+      </c>
+      <c r="F267" s="1">
+        <v>58.06</v>
+      </c>
+      <c r="G267" s="2">
+        <v>0.53517957000000005</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>367</v>
+      </c>
+      <c r="B268" s="1">
+        <v>698.86</v>
+      </c>
+      <c r="C268" s="1">
+        <v>636.30999999999995</v>
+      </c>
+      <c r="D268" s="1">
+        <v>2621.4299999999998</v>
+      </c>
+      <c r="E268" s="1">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="F268" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="G268" s="2">
+        <v>0.55920396999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>368</v>
+      </c>
+      <c r="B269" s="1">
+        <v>718.11</v>
+      </c>
+      <c r="C269" s="1">
+        <v>662.16</v>
+      </c>
+      <c r="D269" s="1">
+        <v>2476.31</v>
+      </c>
+      <c r="E269" s="1">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="F269" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="G269" s="2">
+        <v>0.54059312999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>369</v>
+      </c>
+      <c r="B270" s="1">
+        <v>694.24</v>
+      </c>
+      <c r="C270" s="1">
+        <v>663.62</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2597.66</v>
+      </c>
+      <c r="E270" s="1">
+        <v>83.92</v>
+      </c>
+      <c r="F270" s="1">
+        <v>60.18</v>
+      </c>
+      <c r="G270" s="2">
+        <v>0.49589902000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>370</v>
+      </c>
+      <c r="B271" s="1">
+        <v>721.87</v>
+      </c>
+      <c r="C271" s="1">
+        <v>668.83</v>
+      </c>
+      <c r="D271" s="1">
+        <v>2449.7800000000002</v>
+      </c>
+      <c r="E271" s="1">
+        <v>73</v>
+      </c>
+      <c r="F271" s="1">
+        <v>59.41</v>
+      </c>
+      <c r="G271" s="2">
+        <v>0.54152902000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>371</v>
+      </c>
+      <c r="B272" s="1">
+        <v>712.91</v>
+      </c>
+      <c r="C272" s="1">
+        <v>665.62</v>
+      </c>
+      <c r="D272" s="1">
+        <v>2489.16</v>
+      </c>
+      <c r="E272" s="1">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="F272" s="1">
+        <v>59.88</v>
+      </c>
+      <c r="G272" s="2">
+        <v>0.53161659999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>372</v>
+      </c>
+      <c r="B273" s="1">
+        <v>696.61</v>
+      </c>
+      <c r="C273" s="1">
+        <v>661.51</v>
+      </c>
+      <c r="D273" s="1">
+        <v>2582.12</v>
+      </c>
+      <c r="E273" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="F273" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="G273" s="2">
+        <v>0.50728035000000005</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>373</v>
+      </c>
+      <c r="B274" s="1">
+        <v>697.83</v>
+      </c>
+      <c r="C274" s="1">
+        <v>688.38</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2521.8000000000002</v>
+      </c>
+      <c r="E274" s="1">
+        <v>81.59</v>
+      </c>
+      <c r="F274" s="1">
+        <v>56.76</v>
+      </c>
+      <c r="G274" s="2">
+        <v>0.51810913999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>374</v>
+      </c>
+      <c r="B275" s="1">
+        <v>729.28</v>
+      </c>
+      <c r="C275" s="1">
+        <v>663.42</v>
+      </c>
+      <c r="D275" s="1">
+        <v>2436.4499999999998</v>
+      </c>
+      <c r="E275" s="1">
+        <v>71.19</v>
+      </c>
+      <c r="F275" s="1">
+        <v>60.21</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0.55270854000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>375</v>
+      </c>
+      <c r="B276" s="1">
+        <v>697.41</v>
+      </c>
+      <c r="C276" s="1">
+        <v>636.73</v>
+      </c>
+      <c r="D276" s="1">
+        <v>2630.18</v>
+      </c>
+      <c r="E276" s="1">
+        <v>81.83</v>
+      </c>
+      <c r="F276" s="1">
+        <v>64.72</v>
+      </c>
+      <c r="G276" s="2">
+        <v>0.55314132999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>601</v>
+      </c>
+      <c r="B277" s="1">
+        <v>724.51</v>
+      </c>
+      <c r="C277" s="1">
+        <v>717.25</v>
+      </c>
+      <c r="D277" s="1">
+        <v>2353.54</v>
+      </c>
+      <c r="E277" s="1">
+        <v>72.33</v>
+      </c>
+      <c r="F277" s="1">
+        <v>53.39</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0.60040543999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>602</v>
+      </c>
+      <c r="B278" s="1">
+        <v>696.25</v>
+      </c>
+      <c r="C278" s="1">
+        <v>644.52</v>
+      </c>
+      <c r="D278" s="1">
+        <v>2620.86</v>
+      </c>
+      <c r="E278" s="1">
+        <v>82.52</v>
+      </c>
+      <c r="F278" s="1">
+        <v>63.29</v>
+      </c>
+      <c r="G278" s="2">
+        <v>0.52944875999999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>603</v>
+      </c>
+      <c r="B279" s="1">
+        <v>708.89</v>
+      </c>
+      <c r="C279" s="1">
+        <v>655.64</v>
+      </c>
+      <c r="D279" s="1">
+        <v>2526.4</v>
+      </c>
+      <c r="E279" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="F279" s="1">
+        <v>61.42</v>
+      </c>
+      <c r="G279" s="2">
+        <v>0.53536976999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>604</v>
+      </c>
+      <c r="B280" s="1">
+        <v>717.61</v>
+      </c>
+      <c r="C280" s="1">
+        <v>663.42</v>
+      </c>
+      <c r="D280" s="1">
+        <v>2475.6</v>
+      </c>
+      <c r="E280" s="1">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="F280" s="1">
+        <v>60.21</v>
+      </c>
+      <c r="G280" s="2">
+        <v>0.53850989000000005</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>605</v>
+      </c>
+      <c r="B281" s="1">
+        <v>702.99</v>
+      </c>
+      <c r="C281" s="1">
+        <v>655.95</v>
+      </c>
+      <c r="D281" s="1">
+        <v>2554.08</v>
+      </c>
+      <c r="E281" s="1">
+        <v>79.11</v>
+      </c>
+      <c r="F281" s="1">
+        <v>61.37</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0.52897077999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>606</v>
+      </c>
+      <c r="B282" s="1">
+        <v>694.07</v>
+      </c>
+      <c r="C282" s="1">
+        <v>653.41</v>
+      </c>
+      <c r="D282" s="1">
+        <v>2620.2800000000002</v>
+      </c>
+      <c r="E282" s="1">
+        <v>84.05</v>
+      </c>
+      <c r="F282" s="1">
+        <v>61.78</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0.50367961999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>607</v>
+      </c>
+      <c r="B283" s="1">
+        <v>724.35</v>
+      </c>
+      <c r="C283" s="1">
+        <v>724.07</v>
+      </c>
+      <c r="D283" s="1">
+        <v>2342.73</v>
+      </c>
+      <c r="E283" s="1">
+        <v>72.37</v>
+      </c>
+      <c r="F283" s="1">
+        <v>52.67</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0.61551418000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>608</v>
+      </c>
+      <c r="B284" s="1">
+        <v>724.35</v>
+      </c>
+      <c r="C284" s="1">
+        <v>682.51</v>
+      </c>
+      <c r="D284" s="1">
+        <v>2415.3000000000002</v>
+      </c>
+      <c r="E284" s="1">
+        <v>72.37</v>
+      </c>
+      <c r="F284" s="1">
+        <v>57.52</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0.55187162999999995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>609</v>
+      </c>
+      <c r="B285" s="1">
+        <v>732.79</v>
+      </c>
+      <c r="C285" s="1">
+        <v>681.22</v>
+      </c>
+      <c r="D285" s="1">
+        <v>2391.27</v>
+      </c>
+      <c r="E285" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F285" s="1">
+        <v>57.69</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0.55418290000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>610</v>
+      </c>
+      <c r="B286" s="1">
+        <v>711.4</v>
+      </c>
+      <c r="C286" s="1">
+        <v>640.74</v>
+      </c>
+      <c r="D286" s="1">
+        <v>2548.15</v>
+      </c>
+      <c r="E286" s="1">
+        <v>76.02</v>
+      </c>
+      <c r="F286" s="1">
+        <v>63.97</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0.56788245999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>611</v>
+      </c>
+      <c r="B287" s="1">
+        <v>727.4</v>
+      </c>
+      <c r="C287" s="1">
+        <v>747.87</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2294.64</v>
+      </c>
+      <c r="E287" s="1">
+        <v>71.63</v>
+      </c>
+      <c r="F287" s="1">
+        <v>50.34</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0.71425545000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>612</v>
+      </c>
+      <c r="B288" s="1">
+        <v>699.33</v>
+      </c>
+      <c r="C288" s="1">
+        <v>652.07000000000005</v>
+      </c>
+      <c r="D288" s="1">
+        <v>2583.2600000000002</v>
+      </c>
+      <c r="E288" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="F288" s="1">
+        <v>62</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0.52802422999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>613</v>
+      </c>
+      <c r="B289" s="1">
+        <v>699.33</v>
+      </c>
+      <c r="C289" s="1">
+        <v>639.82000000000005</v>
+      </c>
+      <c r="D289" s="1">
+        <v>2610.31</v>
+      </c>
+      <c r="E289" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="F289" s="1">
+        <v>64.14</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0.55072582999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>614</v>
+      </c>
+      <c r="B290" s="1">
+        <v>733.52</v>
+      </c>
+      <c r="C290" s="1">
+        <v>702.77</v>
+      </c>
+      <c r="D290" s="1">
+        <v>2350.21</v>
+      </c>
+      <c r="E290" s="1">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="F290" s="1">
+        <v>55.01</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0.58190299000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>615</v>
+      </c>
+      <c r="B291" s="1">
+        <v>734.54</v>
+      </c>
+      <c r="C291" s="1">
+        <v>675.61</v>
+      </c>
+      <c r="D291" s="1">
+        <v>2396.6999999999998</v>
+      </c>
+      <c r="E291" s="1">
+        <v>70.02</v>
+      </c>
+      <c r="F291" s="1">
+        <v>58.45</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0.55081815000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>616</v>
+      </c>
+      <c r="B292" s="1">
+        <v>707.45</v>
+      </c>
+      <c r="C292" s="1">
+        <v>717.07</v>
+      </c>
+      <c r="D292" s="1">
+        <v>2419.08</v>
+      </c>
+      <c r="E292" s="1">
+        <v>77.37</v>
+      </c>
+      <c r="F292" s="1">
+        <v>53.41</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0.57639468000000005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>617</v>
+      </c>
+      <c r="B293" s="1">
+        <v>725.65</v>
+      </c>
+      <c r="C293" s="1">
+        <v>654.21</v>
+      </c>
+      <c r="D293" s="1">
+        <v>2466.9</v>
+      </c>
+      <c r="E293" s="1">
+        <v>72.05</v>
+      </c>
+      <c r="F293" s="1">
+        <v>61.65</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0.56042789000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>618</v>
+      </c>
+      <c r="B294" s="1">
+        <v>708.26</v>
+      </c>
+      <c r="C294" s="1">
+        <v>736.39</v>
+      </c>
+      <c r="D294" s="1">
+        <v>2383.7199999999998</v>
+      </c>
+      <c r="E294" s="1">
+        <v>77.08</v>
+      </c>
+      <c r="F294" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0.63429212000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>619</v>
+      </c>
+      <c r="B295" s="1">
+        <v>696.51</v>
+      </c>
+      <c r="C295" s="1">
+        <v>676.92</v>
+      </c>
+      <c r="D295" s="1">
+        <v>2552.59</v>
+      </c>
+      <c r="E295" s="1">
+        <v>82.36</v>
+      </c>
+      <c r="F295" s="1">
+        <v>58.27</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0.50194083</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>620</v>
+      </c>
+      <c r="B296" s="1">
+        <v>700.2</v>
+      </c>
+      <c r="C296" s="1">
+        <v>642.16999999999996</v>
+      </c>
+      <c r="D296" s="1">
+        <v>2599.64</v>
+      </c>
+      <c r="E296" s="1">
+        <v>80.37</v>
+      </c>
+      <c r="F296" s="1">
+        <v>63.71</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0.54870878999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>621</v>
+      </c>
+      <c r="B297" s="1">
+        <v>713.66</v>
+      </c>
+      <c r="C297" s="1">
+        <v>663.02</v>
+      </c>
+      <c r="D297" s="1">
+        <v>2491.42</v>
+      </c>
+      <c r="E297" s="1">
+        <v>75.31</v>
+      </c>
+      <c r="F297" s="1">
+        <v>60.27</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0.53506577</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>622</v>
+      </c>
+      <c r="B298" s="1">
+        <v>703.2</v>
+      </c>
+      <c r="C298" s="1">
+        <v>730.53</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2417.6</v>
+      </c>
+      <c r="E298" s="1">
+        <v>79.02</v>
+      </c>
+      <c r="F298" s="1">
+        <v>52.01</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0.60671691000000005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>623</v>
+      </c>
+      <c r="B299" s="1">
+        <v>713.76</v>
+      </c>
+      <c r="C299" s="1">
+        <v>643.16999999999996</v>
+      </c>
+      <c r="D299" s="1">
+        <v>2533.15</v>
+      </c>
+      <c r="E299" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="F299" s="1">
+        <v>63.53</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0.56599666999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>624</v>
+      </c>
+      <c r="B300" s="1">
+        <v>732.38</v>
+      </c>
+      <c r="C300" s="1">
+        <v>718.93</v>
+      </c>
+      <c r="D300" s="1">
+        <v>2326.04</v>
+      </c>
+      <c r="E300" s="1">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="F300" s="1">
+        <v>53.21</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0.60469521000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>625</v>
+      </c>
+      <c r="B301" s="1">
+        <v>715.56</v>
+      </c>
+      <c r="C301" s="1">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="D301" s="1">
+        <v>2505.1799999999998</v>
+      </c>
+      <c r="E301" s="1">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="F301" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="G301" s="2">
+        <v>0.54900592999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>626</v>
+      </c>
+      <c r="B302" s="1">
+        <v>731.26</v>
+      </c>
+      <c r="C302" s="1">
+        <v>695.87</v>
+      </c>
+      <c r="D302" s="1">
+        <v>2369.15</v>
+      </c>
+      <c r="E302" s="1">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="F302" s="1">
+        <v>55.83</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0.56868989000000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>627</v>
+      </c>
+      <c r="B303" s="1">
+        <v>711.65</v>
+      </c>
+      <c r="C303" s="1">
+        <v>710.94</v>
+      </c>
+      <c r="D303" s="1">
+        <v>2411.23</v>
+      </c>
+      <c r="E303" s="1">
+        <v>75.94</v>
+      </c>
+      <c r="F303" s="1">
+        <v>54.08</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0.57582690000000003</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>628</v>
+      </c>
+      <c r="B304" s="1">
+        <v>709.8</v>
+      </c>
+      <c r="C304" s="1">
+        <v>732.43</v>
+      </c>
+      <c r="D304" s="1">
+        <v>2383.36</v>
+      </c>
+      <c r="E304" s="1">
+        <v>76.55</v>
+      </c>
+      <c r="F304" s="1">
+        <v>51.82</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0.62493142999999995</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>629</v>
+      </c>
+      <c r="B305" s="1">
+        <v>696.11</v>
+      </c>
+      <c r="C305" s="1">
+        <v>647.33000000000004</v>
+      </c>
+      <c r="D305" s="1">
+        <v>2615.77</v>
+      </c>
+      <c r="E305" s="1">
+        <v>82.61</v>
+      </c>
+      <c r="F305" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0.52414958</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>630</v>
+      </c>
+      <c r="B306" s="1">
+        <v>697.78</v>
+      </c>
+      <c r="C306" s="1">
+        <v>728.55</v>
+      </c>
+      <c r="D306" s="1">
+        <v>2453.0700000000002</v>
+      </c>
+      <c r="E306" s="1">
+        <v>81.62</v>
+      </c>
+      <c r="F306" s="1">
+        <v>52.21</v>
+      </c>
+      <c r="G306" s="2">
+        <v>0.58675973999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>631</v>
+      </c>
+      <c r="B307" s="1">
+        <v>694.22</v>
+      </c>
+      <c r="C307" s="1">
+        <v>716.14</v>
+      </c>
+      <c r="D307" s="1">
+        <v>2501.91</v>
+      </c>
+      <c r="E307" s="1">
+        <v>83.93</v>
+      </c>
+      <c r="F307" s="1">
+        <v>53.51</v>
+      </c>
+      <c r="G307" s="2">
+        <v>0.54141691000000003</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>632</v>
+      </c>
+      <c r="B308" s="1">
+        <v>695.31</v>
+      </c>
+      <c r="C308" s="1">
+        <v>638.74</v>
+      </c>
+      <c r="D308" s="1">
+        <v>2641.55</v>
+      </c>
+      <c r="E308" s="1">
+        <v>83.14</v>
+      </c>
+      <c r="F308" s="1">
+        <v>64.34</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0.53681484999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>633</v>
+      </c>
+      <c r="B309" s="1">
+        <v>695.6</v>
+      </c>
+      <c r="C309" s="1">
+        <v>674.39</v>
+      </c>
+      <c r="D309" s="1">
+        <v>2564.54</v>
+      </c>
+      <c r="E309" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="F309" s="1">
+        <v>58.62</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0.49750473000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>634</v>
+      </c>
+      <c r="B310" s="1">
+        <v>696.27</v>
+      </c>
+      <c r="C310" s="1">
+        <v>685.8</v>
+      </c>
+      <c r="D310" s="1">
+        <v>2537.8200000000002</v>
+      </c>
+      <c r="E310" s="1">
+        <v>82.51</v>
+      </c>
+      <c r="F310" s="1">
+        <v>57.09</v>
+      </c>
+      <c r="G310" s="2">
+        <v>0.50983144999999996</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>635</v>
+      </c>
+      <c r="B311" s="1">
+        <v>694.42</v>
+      </c>
+      <c r="C311" s="1">
+        <v>724.55</v>
+      </c>
+      <c r="D311" s="1">
+        <v>2486.08</v>
+      </c>
+      <c r="E311" s="1">
+        <v>83.78</v>
+      </c>
+      <c r="F311" s="1">
+        <v>52.62</v>
+      </c>
+      <c r="G311" s="2">
+        <v>0.55772988999999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>636</v>
+      </c>
+      <c r="B312" s="1">
+        <v>697.8</v>
+      </c>
+      <c r="C312" s="1">
+        <v>750.05</v>
+      </c>
+      <c r="D312" s="1">
+        <v>2418.66</v>
+      </c>
+      <c r="E312" s="1">
+        <v>81.61</v>
+      </c>
+      <c r="F312" s="1">
+        <v>50.14</v>
+      </c>
+      <c r="G312" s="2">
+        <v>0.68403205</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>637</v>
+      </c>
+      <c r="B313" s="1">
+        <v>708.01</v>
+      </c>
+      <c r="C313" s="1">
+        <v>738.35</v>
+      </c>
+      <c r="D313" s="1">
+        <v>2381.7199999999998</v>
+      </c>
+      <c r="E313" s="1">
+        <v>77.17</v>
+      </c>
+      <c r="F313" s="1">
+        <v>51.24</v>
+      </c>
+      <c r="G313" s="2">
+        <v>0.64274224000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>638</v>
+      </c>
+      <c r="B314" s="1">
+        <v>702.59</v>
+      </c>
+      <c r="C314" s="1">
+        <v>708.27</v>
+      </c>
+      <c r="D314" s="1">
+        <v>2458.0100000000002</v>
+      </c>
+      <c r="E314" s="1">
+        <v>79.28</v>
+      </c>
+      <c r="F314" s="1">
+        <v>54.38</v>
+      </c>
+      <c r="G314" s="2">
+        <v>0.55900671999999996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>639</v>
+      </c>
+      <c r="B315" s="1">
+        <v>693.75</v>
+      </c>
+      <c r="C315" s="1">
+        <v>670.08</v>
+      </c>
+      <c r="D315" s="1">
+        <v>2589.61</v>
+      </c>
+      <c r="E315" s="1">
+        <v>84.31</v>
+      </c>
+      <c r="F315" s="1">
+        <v>59.23</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0.48851489999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>640</v>
+      </c>
+      <c r="B316" s="1">
+        <v>708.89</v>
+      </c>
+      <c r="C316" s="1">
+        <v>663.68</v>
+      </c>
+      <c r="D316" s="1">
+        <v>2509.91</v>
+      </c>
+      <c r="E316" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="F316" s="1">
+        <v>60.17</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0.52842676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>641</v>
+      </c>
+      <c r="B317" s="1">
+        <v>697.48</v>
+      </c>
+      <c r="C317" s="1">
+        <v>733.75</v>
+      </c>
+      <c r="D317" s="1">
+        <v>2446.73</v>
+      </c>
+      <c r="E317" s="1">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="F317" s="1">
+        <v>51.69</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0.60085142000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>642</v>
+      </c>
+      <c r="B318" s="1">
         <v>720.31</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C318" s="1">
         <v>691.16</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D318" s="1">
         <v>2413.15</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E318" s="1">
         <v>73.41</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F318" s="1">
         <v>56.41</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G318" s="2">
         <v>0.55494319999999997</v>
       </c>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cemca\Desktop\MLR_CarStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE20680-8ADA-4C1A-AED9-10B31229769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D9CDA-6E09-46F4-A5B6-E69E514DD1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="1935" windowWidth="24915" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="1935" windowWidth="17295" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
